--- a/data/tablas_finales/spr_latente_ind_final.xlsx
+++ b/data/tablas_finales/spr_latente_ind_final.xlsx
@@ -2465,13 +2465,13 @@
         <v>48.1059035753062</v>
       </c>
       <c r="L3" t="n">
-        <v>52.444130917746</v>
+        <v>0.378069747926562</v>
       </c>
       <c r="M3" t="n">
-        <v>33.7849572445957</v>
+        <v>0.24355576202049</v>
       </c>
       <c r="N3" t="n">
-        <v>38.3237677245806</v>
+        <v>0.276276047475228</v>
       </c>
       <c r="O3" t="n">
         <v>2680.55566666667</v>
@@ -2486,7 +2486,7 @@
         <v>2554.692</v>
       </c>
       <c r="S3" t="n">
-        <v>95.442016334629</v>
+        <v>0.000116954890016891</v>
       </c>
       <c r="T3" t="n">
         <v>20942092</v>
@@ -2758,13 +2758,13 @@
         <v>53.5956564560448</v>
       </c>
       <c r="L4" t="n">
-        <v>26.3119343260139</v>
+        <v>0.0781256918512291</v>
       </c>
       <c r="M4" t="n">
-        <v>13.2348857441835</v>
+        <v>0.0392971718660012</v>
       </c>
       <c r="N4" t="n">
-        <v>20.3779053933352</v>
+        <v>0.0605063062869993</v>
       </c>
       <c r="O4" t="n">
         <v>3435.46275</v>
@@ -2779,7 +2779,7 @@
         <v>3123.31025</v>
       </c>
       <c r="S4" t="n">
-        <v>92.0553236381434</v>
+        <v>0.00016303912971072</v>
       </c>
       <c r="T4" t="n">
         <v>9220494</v>
@@ -3051,11 +3051,11 @@
         <v>41.5527361705727</v>
       </c>
       <c r="L5" t="n">
-        <v>89.9444916896385</v>
+        <v>0.0334014287631951</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>95.4758222898069</v>
+        <v>0.035455521699144</v>
       </c>
       <c r="O5" t="n">
         <v>473.674636363636</v>
@@ -3070,7 +3070,7 @@
         <v>459.186454545455</v>
       </c>
       <c r="S5" t="n">
-        <v>96.9726457659632</v>
+        <v>1.59748833686812</v>
       </c>
       <c r="T5" t="n">
         <v>1106598</v>
@@ -3326,11 +3326,11 @@
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>0.000247100521240774</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>0.000247100521240774</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -3507,11 +3507,11 @@
         <v>2.53836805131045</v>
       </c>
       <c r="L7" t="n">
-        <v>99.9972781818182</v>
+        <v>0.0378001570547006</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>99.92466</v>
+        <v>0.0377727065207695</v>
       </c>
       <c r="O7" t="n">
         <v>112.3</v>
@@ -3526,7 +3526,7 @@
         <v>1.3695</v>
       </c>
       <c r="S7" t="n">
-        <v>1.40121807880018</v>
+        <v>0.00719857753593219</v>
       </c>
       <c r="T7" t="n">
         <v>1216952</v>
@@ -3784,11 +3784,11 @@
         <v>8.10411472068688</v>
       </c>
       <c r="L8" t="n">
-        <v>91.9474738905269</v>
+        <v>0.0994958246153252</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>76.2681444477436</v>
+        <v>0.0825293137769475</v>
       </c>
       <c r="O8" t="n">
         <v>79.0234444444445</v>
@@ -3803,7 +3803,7 @@
         <v>25.77375</v>
       </c>
       <c r="S8" t="n">
-        <v>27.8249347722825</v>
+        <v>0.0000138948041101678</v>
       </c>
       <c r="T8" t="n">
         <v>3599141</v>
@@ -4061,13 +4061,13 @@
         <v>52.0820878806064</v>
       </c>
       <c r="L9" t="n">
-        <v>98.0033424473712</v>
+        <v>0.0306336877315632</v>
       </c>
       <c r="M9" t="n">
-        <v>85.1503579156793</v>
+        <v>0.0266161276695286</v>
       </c>
       <c r="N9" t="n">
-        <v>81.793134995499</v>
+        <v>0.0255667336793463</v>
       </c>
       <c r="O9" t="n">
         <v>440.378</v>
@@ -4082,7 +4082,7 @@
         <v>417.629</v>
       </c>
       <c r="S9" t="n">
-        <v>97.0647201488363</v>
+        <v>2.22757185144122</v>
       </c>
       <c r="T9" t="n">
         <v>1037446</v>
@@ -4208,7 +4208,7 @@
         <v>672.606</v>
       </c>
       <c r="BI9" t="n">
-        <v>98.7065246103725</v>
+        <v>98.7065246103724</v>
       </c>
       <c r="BJ9" t="n">
         <v>2018</v>
@@ -4499,11 +4499,11 @@
       </c>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>98.3489563398159</v>
+        <v>0.0019201586348117</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>98.0483532566719</v>
+        <v>0.00191428967974363</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -4680,7 +4680,7 @@
         <v>2.77561647198206</v>
       </c>
       <c r="L12" t="n">
-        <v>99.8572654757199</v>
+        <v>0.099176814923342</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -4697,7 +4697,7 @@
         <v>152.638636363636</v>
       </c>
       <c r="S12" t="n">
-        <v>48.2532423076293</v>
+        <v>0.547127611780281</v>
       </c>
       <c r="T12" t="n">
         <v>3240082</v>
@@ -4941,11 +4941,11 @@
         <v>4.56199773177842</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>0.106769074539077</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>100</v>
+        <v>0.106769074539077</v>
       </c>
       <c r="O13" t="n">
         <v>188.660181818182</v>
@@ -4960,7 +4960,7 @@
         <v>133.639636363636</v>
       </c>
       <c r="S13" t="n">
-        <v>70.6546590006278</v>
+        <v>0.473997124736273</v>
       </c>
       <c r="T13" t="n">
         <v>3530644</v>
@@ -5218,13 +5218,13 @@
         <v>36.9968021864365</v>
       </c>
       <c r="L14" t="n">
-        <v>81.7007101638537</v>
+        <v>0.103918079364197</v>
       </c>
       <c r="M14" t="n">
-        <v>87.3716626746506</v>
+        <v>0.111131168355782</v>
       </c>
       <c r="N14" t="n">
-        <v>90.0015262252617</v>
+        <v>0.114476186638013</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -5431,13 +5431,13 @@
         <v>86.8561826158156</v>
       </c>
       <c r="L15" t="n">
-        <v>55.0402016392199</v>
+        <v>0.147616632064263</v>
       </c>
       <c r="M15" t="n">
-        <v>4.05737464410045</v>
+        <v>0.0108817911662276</v>
       </c>
       <c r="N15" t="n">
-        <v>46.3779630698707</v>
+        <v>0.124384695304182</v>
       </c>
       <c r="O15" t="n">
         <v>3165.818</v>
@@ -5452,7 +5452,7 @@
         <v>3022.97</v>
       </c>
       <c r="S15" t="n">
-        <v>95.4878012570527</v>
+        <v>0.000125205382199317</v>
       </c>
       <c r="T15" t="n">
         <v>7805682</v>
@@ -5724,11 +5724,11 @@
         <v>1.21771734406673</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>0.0071364630006316</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>99.4876502704055</v>
+        <v>0.00709989935174525</v>
       </c>
       <c r="O16" t="n">
         <v>55.6056363636364</v>
@@ -5743,7 +5743,7 @@
         <v>36.4142727272727</v>
       </c>
       <c r="S16" t="n">
-        <v>65.3482548142711</v>
+        <v>0.127391761104105</v>
       </c>
       <c r="T16" t="n">
         <v>225069</v>
@@ -6001,13 +6001,13 @@
         <v>37.849266737858</v>
       </c>
       <c r="L17" t="n">
-        <v>57.6635698686188</v>
+        <v>0.0988252526591181</v>
       </c>
       <c r="M17" t="n">
-        <v>5.23734884907376</v>
+        <v>0.0089758980315114</v>
       </c>
       <c r="N17" t="n">
-        <v>6.97901393012366</v>
+        <v>0.01196080673686</v>
       </c>
       <c r="O17" t="n">
         <v>1221.223</v>
@@ -6022,7 +6022,7 @@
         <v>1186.825</v>
       </c>
       <c r="S17" t="n">
-        <v>97.0837082891684</v>
+        <v>0.0000511040030840271</v>
       </c>
       <c r="T17" t="n">
         <v>5266858</v>
@@ -6294,13 +6294,13 @@
         <v>77.2265415034756</v>
       </c>
       <c r="L18" t="n">
-        <v>40.7905463238088</v>
+        <v>0.159243826293923</v>
       </c>
       <c r="M18" t="n">
-        <v>4.7350795752754</v>
+        <v>0.0184854643374301</v>
       </c>
       <c r="N18" t="n">
-        <v>11.2745749036194</v>
+        <v>0.0440152586640359</v>
       </c>
       <c r="O18" t="n">
         <v>1421.491</v>
@@ -6315,7 +6315,7 @@
         <v>1366.441</v>
       </c>
       <c r="S18" t="n">
-        <v>95.6872247843178</v>
+        <v>0.000163557115223987</v>
       </c>
       <c r="T18" t="n">
         <v>11881653</v>
@@ -6587,13 +6587,13 @@
         <v>43.7549683641403</v>
       </c>
       <c r="L19" t="n">
-        <v>96.7033128643376</v>
+        <v>2.94373850631183</v>
       </c>
       <c r="M19" t="n">
-        <v>30.7434203888233</v>
+        <v>0.935858221747504</v>
       </c>
       <c r="N19" t="n">
-        <v>44.8705112483245</v>
+        <v>1.36589996606313</v>
       </c>
       <c r="O19" t="n">
         <v>25488.258</v>
@@ -6608,7 +6608,7 @@
         <v>19288.9573333333</v>
       </c>
       <c r="S19" t="n">
-        <v>75.6616247428</v>
+        <v>0.000681173523050093</v>
       </c>
       <c r="T19" t="n">
         <v>103121684</v>
@@ -6880,11 +6880,11 @@
         <v>6.78305484230314</v>
       </c>
       <c r="L20" t="n">
-        <v>98.2105498506291</v>
+        <v>0.0549403074640651</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>83.7152330885022</v>
+        <v>0.0468314315753597</v>
       </c>
       <c r="O20" t="n">
         <v>208.053</v>
@@ -6899,7 +6899,7 @@
         <v>88.7451818181818</v>
       </c>
       <c r="S20" t="n">
-        <v>42.6905725113168</v>
+        <v>0.315359019889636</v>
       </c>
       <c r="T20" t="n">
         <v>1719734</v>
@@ -7487,13 +7487,13 @@
         <v>18.6744610960467</v>
       </c>
       <c r="L23" t="n">
-        <v>97.3304636613794</v>
+        <v>0.0546419943101637</v>
       </c>
       <c r="M23" t="n">
-        <v>96.0497395755233</v>
+        <v>0.0539229869657036</v>
       </c>
       <c r="N23" t="n">
-        <v>92.1782854742503</v>
+        <v>0.0517495259030933</v>
       </c>
       <c r="O23" t="n">
         <v>153.332363636364</v>
@@ -7508,7 +7508,7 @@
         <v>128.899272727273</v>
       </c>
       <c r="S23" t="n">
-        <v>83.8931038549025</v>
+        <v>0.575229463272926</v>
       </c>
       <c r="T23" t="n">
         <v>1726532</v>
@@ -7780,11 +7780,11 @@
         <v>11.3730852834134</v>
       </c>
       <c r="L24" t="n">
-        <v>97.7839267845316</v>
+        <v>0.0634829383577391</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>97.0926274675505</v>
+        <v>0.0630341354371593</v>
       </c>
       <c r="O24" t="n">
         <v>523.37</v>
@@ -7799,7 +7799,7 @@
         <v>28.367</v>
       </c>
       <c r="S24" t="n">
-        <v>5.12178387650086</v>
+        <v>0.100464304156164</v>
       </c>
       <c r="T24" t="n">
         <v>1974004</v>
@@ -8057,13 +8057,13 @@
         <v>17.907149132312</v>
       </c>
       <c r="L25" t="n">
-        <v>94.8057909940002</v>
+        <v>0.00535539178301093</v>
       </c>
       <c r="M25" t="n">
-        <v>87.2147778875867</v>
+        <v>0.00492659045359227</v>
       </c>
       <c r="N25" t="n">
-        <v>83.0191295344893</v>
+        <v>0.00468958656934639</v>
       </c>
       <c r="O25" t="n">
         <v>25.7638</v>
@@ -8078,7 +8078,7 @@
         <v>11.3586</v>
       </c>
       <c r="S25" t="n">
-        <v>43.9239030649982</v>
+        <v>0.0378517357544639</v>
       </c>
       <c r="T25" t="n">
         <v>172024</v>
@@ -8497,13 +8497,13 @@
         <v>30.7258415415167</v>
       </c>
       <c r="L27" t="n">
-        <v>72.3583794723043</v>
+        <v>0.0742328263436545</v>
       </c>
       <c r="M27" t="n">
-        <v>21.8941428120988</v>
+        <v>0.0224613115048518</v>
       </c>
       <c r="N27" t="n">
-        <v>33.4915418007366</v>
+        <v>0.0343591416033152</v>
       </c>
       <c r="O27" t="n">
         <v>1529.482</v>
@@ -8518,7 +8518,7 @@
         <v>1315.238</v>
       </c>
       <c r="S27" t="n">
-        <v>85.5128778121691</v>
+        <v>0.0000453082247250819</v>
       </c>
       <c r="T27" t="n">
         <v>3419056</v>
@@ -8790,11 +8790,11 @@
         <v>10.0012790865916</v>
       </c>
       <c r="L28" t="n">
-        <v>87.6923334973455</v>
+        <v>0.760683618340203</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>54.9588158170879</v>
+        <v>0.476738036360963</v>
       </c>
       <c r="O28" t="n">
         <v>9733.7868</v>
@@ -8809,7 +8809,7 @@
         <v>5948.9125</v>
       </c>
       <c r="S28" t="n">
-        <v>60.2596537724164</v>
+        <v>0.0001907105633987</v>
       </c>
       <c r="T28" t="n">
         <v>27904512</v>
@@ -9081,9 +9081,7 @@
       <c r="R29" t="n">
         <v>1.72466666666667</v>
       </c>
-      <c r="S29" t="n">
-        <v>43.8577790708433</v>
-      </c>
+      <c r="S29"/>
       <c r="T29" t="n">
         <v>186005</v>
       </c>
@@ -9325,7 +9323,7 @@
         <v>2.975</v>
       </c>
       <c r="S30" t="n">
-        <v>38.0779505067237</v>
+        <v>0.00349678582778879</v>
       </c>
       <c r="T30" t="n">
         <v>96625</v>
@@ -9555,13 +9553,13 @@
         <v>56.3297024090978</v>
       </c>
       <c r="L31" t="n">
-        <v>95.1007705542624</v>
+        <v>0.0127486244759308</v>
       </c>
       <c r="M31" t="n">
-        <v>82.7536417144339</v>
+        <v>0.0110934443126418</v>
       </c>
       <c r="N31" t="n">
-        <v>64.6965180415973</v>
+        <v>0.00867281735579625</v>
       </c>
       <c r="O31" t="n">
         <v>160.6355</v>
@@ -9576,7 +9574,7 @@
         <v>159.3195</v>
       </c>
       <c r="S31" t="n">
-        <v>99.1831706623983</v>
+        <v>0.655203011037304</v>
       </c>
       <c r="T31" t="n">
         <v>448104</v>
@@ -9848,11 +9846,11 @@
         <v>19.7040768574365</v>
       </c>
       <c r="L32" t="n">
-        <v>70.1883020256282</v>
+        <v>0.0157706411650774</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>47.4775996075649</v>
+        <v>0.0106677632195281</v>
       </c>
       <c r="O32" t="n">
         <v>155.473</v>
@@ -9867,7 +9865,7 @@
         <v>113.913</v>
       </c>
       <c r="S32" t="n">
-        <v>73.2686704443858</v>
+        <v>0.372366189303032</v>
       </c>
       <c r="T32" t="n">
         <v>745611</v>
@@ -10125,13 +10123,13 @@
         <v>72.7197030081252</v>
       </c>
       <c r="L33" t="n">
-        <v>32.7106040413786</v>
+        <v>0.0279435091149433</v>
       </c>
       <c r="M33" t="n">
-        <v>12.71288444353</v>
+        <v>0.0108601663813858</v>
       </c>
       <c r="N33" t="n">
-        <v>7.22252841518826</v>
+        <v>0.00616994991432889</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
@@ -10338,11 +10336,11 @@
         <v>1.71772910813896</v>
       </c>
       <c r="L34" t="n">
-        <v>98.7551198725212</v>
+        <v>0.193668153612687</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>99.0030419128329</v>
+        <v>0.194154352240657</v>
       </c>
       <c r="O34" t="n">
         <v>299.061454545455</v>
@@ -10357,7 +10355,7 @@
         <v>136.155909090909</v>
       </c>
       <c r="S34" t="n">
-        <v>45.4704354179859</v>
+        <v>0.496505987549448</v>
       </c>
       <c r="T34" t="n">
         <v>6470872</v>
@@ -10615,11 +10613,11 @@
         <v>3.3084111030076</v>
       </c>
       <c r="L35" t="n">
-        <v>100</v>
+        <v>0.0632316360513456</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>99.868833943901</v>
+        <v>0.0631486976081301</v>
       </c>
       <c r="O35" t="n">
         <v>147.255636363636</v>
@@ -10634,7 +10632,7 @@
         <v>97.9233636363636</v>
       </c>
       <c r="S35" t="n">
-        <v>66.7158854019553</v>
+        <v>0.346191984266148</v>
       </c>
       <c r="T35" t="n">
         <v>2045843</v>
@@ -11055,11 +11053,11 @@
         <v>9.73030596635984</v>
       </c>
       <c r="L37" t="n">
-        <v>95.196791559132</v>
+        <v>0.0631177549745042</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>94.3912932651906</v>
+        <v>0.0625836902952572</v>
       </c>
       <c r="O37" t="n">
         <v>711.320090909091</v>
@@ -11074,7 +11072,7 @@
         <v>195.389454545455</v>
       </c>
       <c r="S37" t="n">
-        <v>27.4970236756778</v>
+        <v>0.729076540117461</v>
       </c>
       <c r="T37" t="n">
         <v>2185486</v>
@@ -11332,13 +11330,13 @@
         <v>30.6346636984449</v>
       </c>
       <c r="L38" t="n">
-        <v>84.682884044284</v>
+        <v>15.6036289922078</v>
       </c>
       <c r="M38" t="n">
-        <v>95.3</v>
+        <v>17.5599338607762</v>
       </c>
       <c r="N38" t="n">
-        <v>74.4873992611601</v>
+        <v>13.7250136882183</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
@@ -11545,13 +11543,13 @@
         <v>45.2000583754796</v>
       </c>
       <c r="L39" t="n">
-        <v>57.069723927496</v>
+        <v>0.197948476407811</v>
       </c>
       <c r="M39" t="n">
-        <v>8.63979228089418</v>
+        <v>0.0299674433444909</v>
       </c>
       <c r="N39" t="n">
-        <v>15.9852685336041</v>
+        <v>0.0554455030344403</v>
       </c>
       <c r="O39" t="n">
         <v>3612.4202</v>
@@ -11566,7 +11564,7 @@
         <v>3290.6028</v>
       </c>
       <c r="S39" t="n">
-        <v>91.4290577667203</v>
+        <v>0.000116886730346921</v>
       </c>
       <c r="T39" t="n">
         <v>10977824</v>
@@ -11838,13 +11836,13 @@
         <v>48.8148583946278</v>
       </c>
       <c r="L40" t="n">
-        <v>46.1144507080862</v>
+        <v>0.139382784998531</v>
       </c>
       <c r="M40" t="n">
-        <v>22.0301344492869</v>
+        <v>0.0665869688629999</v>
       </c>
       <c r="N40" t="n">
-        <v>22.6731063861271</v>
+        <v>0.0685303774444009</v>
       </c>
       <c r="O40" t="n">
         <v>4010.586</v>
@@ -11859,7 +11857,7 @@
         <v>3807.415</v>
       </c>
       <c r="S40" t="n">
-        <v>94.934131820138</v>
+        <v>0.000144166545561181</v>
       </c>
       <c r="T40" t="n">
         <v>9475331</v>
@@ -12131,13 +12129,13 @@
         <v>61.2051626733616</v>
       </c>
       <c r="L41" t="n">
-        <v>16.3142775845298</v>
+        <v>0.211283774512587</v>
       </c>
       <c r="M41" t="n">
-        <v>12.3336281870023</v>
+        <v>0.159730978174342</v>
       </c>
       <c r="N41" t="n">
-        <v>14.9577378350278</v>
+        <v>0.193715430645316</v>
       </c>
       <c r="O41" t="n">
         <v>17026.893</v>
@@ -12152,7 +12150,7 @@
         <v>16528.647</v>
       </c>
       <c r="S41" t="n">
-        <v>97.0737702997253</v>
+        <v>0.000538958596190893</v>
       </c>
       <c r="T41" t="n">
         <v>38889275</v>
@@ -12424,13 +12422,13 @@
         <v>33.52976315524</v>
       </c>
       <c r="L42" t="n">
-        <v>38.8546425500637</v>
+        <v>0.0196392659118693</v>
       </c>
       <c r="M42" t="n">
-        <v>31.8136034644621</v>
+        <v>0.0160803388487823</v>
       </c>
       <c r="N42" t="n">
-        <v>6.15380914875023</v>
+        <v>0.00311047242520577</v>
       </c>
       <c r="O42" t="n">
         <v>42.073</v>
@@ -12445,7 +12443,7 @@
         <v>31.473</v>
       </c>
       <c r="S42" t="n">
-        <v>74.8056948636893</v>
+        <v>1.36756864583135</v>
       </c>
       <c r="T42" t="n">
         <v>1583690</v>
@@ -12717,13 +12715,13 @@
         <v>17.182608960892</v>
       </c>
       <c r="L43" t="n">
-        <v>82.0392881325181</v>
+        <v>0.232641818155352</v>
       </c>
       <c r="M43" t="n">
-        <v>32.9457352798995</v>
+        <v>0.093425429820895</v>
       </c>
       <c r="N43" t="n">
-        <v>75.7278298857205</v>
+        <v>0.214744184531633</v>
       </c>
       <c r="O43" t="n">
         <v>3449.15754545455</v>
@@ -12738,7 +12736,7 @@
         <v>2092.35672727273</v>
       </c>
       <c r="S43" t="n">
-        <v>60.6354745506176</v>
+        <v>0.0000767658299566509</v>
       </c>
       <c r="T43" t="n">
         <v>9454686</v>
@@ -13010,13 +13008,13 @@
         <v>40.0390576200128</v>
       </c>
       <c r="L44" t="n">
-        <v>78.4898582651519</v>
+        <v>0.0118188786205501</v>
       </c>
       <c r="M44" t="n">
-        <v>14.6530589218417</v>
+        <v>0.00220643441897902</v>
       </c>
       <c r="N44" t="n">
-        <v>31.1782050372487</v>
+        <v>0.00469476476434753</v>
       </c>
       <c r="O44" t="n">
         <v>65.938</v>
@@ -13031,7 +13029,7 @@
         <v>61.062</v>
       </c>
       <c r="S44" t="n">
-        <v>92.605174557918</v>
+        <v>0.229741290771199</v>
       </c>
       <c r="T44" t="n">
         <v>463103</v>
@@ -13303,11 +13301,11 @@
         <v>16.3018463610483</v>
       </c>
       <c r="L45" t="n">
-        <v>74.122667880756</v>
+        <v>0.00430704646121098</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>56.0099451020239</v>
+        <v>0.00325457033241682</v>
       </c>
       <c r="O45" t="n">
         <v>23.8335</v>
@@ -13322,7 +13320,7 @@
         <v>17.937</v>
       </c>
       <c r="S45" t="n">
-        <v>75.3789279119208</v>
+        <v>0.0843826566185469</v>
       </c>
       <c r="T45" t="n">
         <v>195065</v>
@@ -13580,13 +13578,13 @@
         <v>13.9344894176016</v>
       </c>
       <c r="L46" t="n">
-        <v>96.9903297070003</v>
+        <v>0.0333844357111108</v>
       </c>
       <c r="M46" t="n">
-        <v>83.0498829433704</v>
+        <v>0.0285860815847718</v>
       </c>
       <c r="N46" t="n">
-        <v>93.987553503982</v>
+        <v>0.0323508688657629</v>
       </c>
       <c r="O46" t="n">
         <v>294.240818181818</v>
@@ -13601,7 +13599,7 @@
         <v>140.124909090909</v>
       </c>
       <c r="S46" t="n">
-        <v>46.6299455982208</v>
+        <v>0.480771440060691</v>
       </c>
       <c r="T46" t="n">
         <v>1013042</v>
@@ -13873,13 +13871,13 @@
         <v>18.5836002013692</v>
       </c>
       <c r="L47" t="n">
-        <v>86.0469094238208</v>
+        <v>0.0663284588761405</v>
       </c>
       <c r="M47" t="n">
-        <v>77.0325911550014</v>
+        <v>0.0593798555783177</v>
       </c>
       <c r="N47" t="n">
-        <v>83.5595834276092</v>
+        <v>0.0644111267934893</v>
       </c>
       <c r="O47"/>
       <c r="P47"/>
@@ -14380,11 +14378,11 @@
         <v>3.34038961244106</v>
       </c>
       <c r="L50" t="n">
-        <v>99.8667942096022</v>
+        <v>0.0113489656088138</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>99.0683199376173</v>
+        <v>0.0112582261681018</v>
       </c>
       <c r="O50" t="n">
         <v>12.7069090909091</v>
@@ -14399,7 +14397,7 @@
         <v>7.00554545454545</v>
       </c>
       <c r="S50" t="n">
-        <v>54.2589626886234</v>
+        <v>0.0347654035644376</v>
       </c>
       <c r="T50" t="n">
         <v>358900</v>
@@ -14657,11 +14655,11 @@
         <v>2.92066122156509</v>
       </c>
       <c r="L51" t="n">
-        <v>99.7955828609306</v>
+        <v>0.082100832451109</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>99.2571549557326</v>
+        <v>0.081657873174111</v>
       </c>
       <c r="O51" t="n">
         <v>147.148</v>
@@ -14676,7 +14674,7 @@
         <v>34.4087272727273</v>
       </c>
       <c r="S51" t="n">
-        <v>23.3745823412453</v>
+        <v>0.119635011799044</v>
       </c>
       <c r="T51" t="n">
         <v>2783117</v>
@@ -14934,11 +14932,11 @@
         <v>1.4401474345323</v>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>0.54856452845014</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>98.991935483871</v>
+        <v>0.543034644090764</v>
       </c>
       <c r="O52" t="n">
         <v>575.366454545455</v>
@@ -14953,7 +14951,7 @@
         <v>210.304</v>
       </c>
       <c r="S52" t="n">
-        <v>36.2504409637157</v>
+        <v>0.741016686110769</v>
       </c>
       <c r="T52" t="n">
         <v>18334806</v>
@@ -15211,11 +15209,11 @@
         <v>1.51741884340891</v>
       </c>
       <c r="L53" t="n">
-        <v>49.1288231287828</v>
+        <v>0.00323033518251139</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>18.407934133364</v>
+        <v>0.00121036478143358</v>
       </c>
       <c r="O53" t="n">
         <v>1.007</v>
@@ -15230,7 +15228,7 @@
         <v>0.701</v>
       </c>
       <c r="S53" t="n">
-        <v>69.6127110228401</v>
+        <v>0.00571210430855711</v>
       </c>
       <c r="T53" t="n">
         <v>207758</v>
@@ -15635,11 +15633,11 @@
         <v>2.43268925427949</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0.0210172465693329</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>99.5975855130785</v>
+        <v>0.0209326701243859</v>
       </c>
       <c r="O55" t="n">
         <v>65.9298181818182</v>
@@ -15654,7 +15652,7 @@
         <v>19.6481111111111</v>
       </c>
       <c r="S55" t="n">
-        <v>29.6717929508011</v>
+        <v>0.0685455090698999</v>
       </c>
       <c r="T55" t="n">
         <v>698080</v>
@@ -15912,13 +15910,13 @@
         <v>10.6928957396473</v>
       </c>
       <c r="L56" t="n">
-        <v>87.8794410933823</v>
+        <v>0.0594395291689635</v>
       </c>
       <c r="M56" t="n">
-        <v>39.0267799207637</v>
+        <v>0.0263967703322779</v>
       </c>
       <c r="N56" t="n">
-        <v>75.4777662884107</v>
+        <v>0.0510513361838625</v>
       </c>
       <c r="O56" t="n">
         <v>428.179818181818</v>
@@ -15933,7 +15931,7 @@
         <v>334.360181818182</v>
       </c>
       <c r="S56" t="n">
-        <v>77.981047246868</v>
+        <v>1.18235694760107</v>
       </c>
       <c r="T56" t="n">
         <v>1977456</v>
@@ -16205,13 +16203,13 @@
         <v>10.43730094197</v>
       </c>
       <c r="L57" t="n">
-        <v>88.0189289172211</v>
+        <v>0.298978359763199</v>
       </c>
       <c r="M57" t="n">
-        <v>73.6508843069991</v>
+        <v>0.250173693955363</v>
       </c>
       <c r="N57" t="n">
-        <v>78.0889195921558</v>
+        <v>0.265248593484932</v>
       </c>
       <c r="O57"/>
       <c r="P57"/>
@@ -16418,13 +16416,13 @@
         <v>27.6020977493177</v>
       </c>
       <c r="L58" t="n">
-        <v>81.6665007069575</v>
+        <v>0.140947248736162</v>
       </c>
       <c r="M58" t="n">
-        <v>78.5046383469407</v>
+        <v>0.135490227844255</v>
       </c>
       <c r="N58" t="n">
-        <v>77.4689777685702</v>
+        <v>0.133702793487668</v>
       </c>
       <c r="O58" t="n">
         <v>1922.31127272727</v>
@@ -16439,7 +16437,7 @@
         <v>1139.636</v>
       </c>
       <c r="S58" t="n">
-        <v>58.9414905511637</v>
+        <v>0.0000399900102824413</v>
       </c>
       <c r="T58" t="n">
         <v>5529274</v>
@@ -16711,13 +16709,13 @@
         <v>26.3037530957116</v>
       </c>
       <c r="L59" t="n">
-        <v>98.1462967723285</v>
+        <v>1.57567448035794</v>
       </c>
       <c r="M59" t="n">
-        <v>81.8177317989708</v>
+        <v>1.31353006966185</v>
       </c>
       <c r="N59" t="n">
-        <v>93.6345350944916</v>
+        <v>1.50324110313419</v>
       </c>
       <c r="O59" t="n">
         <v>6403.3217</v>
@@ -16732,7 +16730,7 @@
         <v>2649.2751</v>
       </c>
       <c r="S59" t="n">
-        <v>41.0071451956465</v>
+        <v>0.0000991066088963894</v>
       </c>
       <c r="T59" t="n">
         <v>48702261</v>
@@ -17004,11 +17002,11 @@
         <v>66.1909508311829</v>
       </c>
       <c r="L60" t="n">
-        <v>28.0009185575</v>
+        <v>0.016958814897719</v>
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>5.29863724312503</v>
+        <v>0.00320913073018631</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
@@ -17201,11 +17199,11 @@
         <v>4.19219684128785</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>0.282802216152834</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>99.994635193133</v>
+        <v>0.282787044360122</v>
       </c>
       <c r="O61" t="n">
         <v>771.439363636364</v>
@@ -17220,7 +17218,7 @@
         <v>269.035272727273</v>
       </c>
       <c r="S61" t="n">
-        <v>34.9403027883216</v>
+        <v>0.946221877989048</v>
       </c>
       <c r="T61" t="n">
         <v>9160656</v>
@@ -17478,11 +17476,11 @@
         <v>3.91642037444491</v>
       </c>
       <c r="L62" t="n">
-        <v>99.1009865863048</v>
+        <v>0.0121811461702699</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>99.1729211830926</v>
+        <v>0.0121899881189564</v>
       </c>
       <c r="O62" t="n">
         <v>24.6487272727273</v>
@@ -17497,7 +17495,7 @@
         <v>6.56836363636364</v>
       </c>
       <c r="S62" t="n">
-        <v>26.6896721608518</v>
+        <v>0.0228229481775951</v>
       </c>
       <c r="T62" t="n">
         <v>410662</v>
@@ -17755,13 +17753,13 @@
         <v>70.0733244125505</v>
       </c>
       <c r="L63" t="n">
-        <v>30.4509003273781</v>
+        <v>0.724169802291226</v>
       </c>
       <c r="M63" t="n">
-        <v>4.82514338071475</v>
+        <v>0.114749419244507</v>
       </c>
       <c r="N63" t="n">
-        <v>4.20402746226701</v>
+        <v>0.0999783160250133</v>
       </c>
       <c r="O63" t="n">
         <v>25215.52</v>
@@ -17776,7 +17774,7 @@
         <v>24466.806</v>
       </c>
       <c r="S63" t="n">
-        <v>97.030741384671</v>
+        <v>0.00106640521245265</v>
       </c>
       <c r="T63" t="n">
         <v>72085216</v>
@@ -18048,11 +18046,11 @@
         <v>4.10782221814229</v>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>0.0242632235982274</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>99.4536211207955</v>
+        <v>0.0241306544690726</v>
       </c>
       <c r="O64" t="n">
         <v>101.235272727273</v>
@@ -18067,7 +18065,7 @@
         <v>60.9310909090909</v>
       </c>
       <c r="S64" t="n">
-        <v>60.1335173528456</v>
+        <v>0.214126951938625</v>
       </c>
       <c r="T64" t="n">
         <v>803615</v>
@@ -18325,13 +18323,13 @@
         <v>30.0883745477065</v>
       </c>
       <c r="L65" t="n">
-        <v>91.2486576618488</v>
+        <v>0.0112185923764694</v>
       </c>
       <c r="M65" t="n">
-        <v>80.1314539712876</v>
+        <v>0.00985178458152323</v>
       </c>
       <c r="N65" t="n">
-        <v>90.056525600711</v>
+        <v>0.0110720253584384</v>
       </c>
       <c r="O65" t="n">
         <v>126.338</v>
@@ -18586,11 +18584,11 @@
         <v>2.8076820699884</v>
       </c>
       <c r="L66" t="n">
-        <v>100</v>
+        <v>0.400529728344944</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>98.8922457200403</v>
+        <v>0.396092843136692</v>
       </c>
       <c r="O66" t="n">
         <v>729.817636363636</v>
@@ -18605,7 +18603,7 @@
         <v>358.298818181818</v>
       </c>
       <c r="S66" t="n">
-        <v>48.9505540923963</v>
+        <v>1.29770629825572</v>
       </c>
       <c r="T66" t="n">
         <v>12999819</v>
@@ -19022,9 +19020,7 @@
       <c r="R68" t="n">
         <v>11.922</v>
       </c>
-      <c r="S68" t="n">
-        <v>96.9189496788879</v>
-      </c>
+      <c r="S68"/>
       <c r="T68" t="n">
         <v>83598</v>
       </c>
@@ -19237,11 +19233,11 @@
         <v>32.8787549657911</v>
       </c>
       <c r="L69" t="n">
-        <v>48.6304807413253</v>
+        <v>0.00345040833948979</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>38.625607116614</v>
+        <v>0.00274054697550557</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
@@ -19434,11 +19430,11 @@
         <v>1.14400274800852</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>0.334900206809209</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>99.4747743229689</v>
+        <v>0.333141224930617</v>
       </c>
       <c r="O70" t="n">
         <v>348.180545454545</v>
@@ -19453,7 +19449,7 @@
         <v>152.982</v>
       </c>
       <c r="S70" t="n">
-        <v>43.9502198454745</v>
+        <v>0.549624048909321</v>
       </c>
       <c r="T70" t="n">
         <v>10926403</v>
@@ -19711,13 +19707,13 @@
         <v>44.9643166090376</v>
       </c>
       <c r="L71" t="n">
-        <v>88.1394230659209</v>
+        <v>0.0416227229254122</v>
       </c>
       <c r="M71" t="n">
-        <v>87.4433712232607</v>
+        <v>0.0412940212845233</v>
       </c>
       <c r="N71" t="n">
-        <v>77.5150084103889</v>
+        <v>0.0366054780641523</v>
       </c>
       <c r="O71" t="n">
         <v>750.418</v>
@@ -19732,7 +19728,7 @@
         <v>752.182888888889</v>
       </c>
       <c r="S71" t="n">
-        <v>97.3848065467199</v>
+        <v>2.56489313856814</v>
       </c>
       <c r="T71" t="n">
         <v>1523815</v>
@@ -20004,13 +20000,13 @@
         <v>41.5880387600257</v>
       </c>
       <c r="L72" t="n">
-        <v>66.8102747591146</v>
+        <v>0.257422029172245</v>
       </c>
       <c r="M72" t="n">
-        <v>34.8756998204674</v>
+        <v>0.134377136584998</v>
       </c>
       <c r="N72" t="n">
-        <v>12.9810968804092</v>
+        <v>0.0500165627500367</v>
       </c>
       <c r="O72" t="n">
         <v>4472.03075</v>
@@ -20025,7 +20021,7 @@
         <v>4132.2085</v>
       </c>
       <c r="S72" t="n">
-        <v>92.0803980744358</v>
+        <v>0.000154297383945877</v>
       </c>
       <c r="T72" t="n">
         <v>12467646</v>
@@ -20444,13 +20440,13 @@
         <v>64.1423734845164</v>
       </c>
       <c r="L74" t="n">
-        <v>50.0921813867321</v>
+        <v>0.109060098418804</v>
       </c>
       <c r="M74" t="n">
-        <v>13.0770064560231</v>
+        <v>0.0284711021088605</v>
       </c>
       <c r="N74" t="n">
-        <v>14.2202653291598</v>
+        <v>0.0309601916587815</v>
       </c>
       <c r="O74"/>
       <c r="P74"/>
@@ -20657,13 +20653,13 @@
         <v>52.3025097472967</v>
       </c>
       <c r="L75" t="n">
-        <v>71.3526883613937</v>
+        <v>0.0189829313489124</v>
       </c>
       <c r="M75" t="n">
-        <v>11.9348389789712</v>
+        <v>0.0031751884084681</v>
       </c>
       <c r="N75" t="n">
-        <v>36.8964518995138</v>
+        <v>0.00981606761443178</v>
       </c>
       <c r="O75" t="n">
         <v>273.0275</v>
@@ -20678,7 +20674,7 @@
         <v>261.6625</v>
       </c>
       <c r="S75" t="n">
-        <v>95.4511778984123</v>
+        <v>1.15661290090501</v>
       </c>
       <c r="T75" t="n">
         <v>846337</v>
@@ -20950,13 +20946,13 @@
         <v>55.1461203000495</v>
       </c>
       <c r="L76" t="n">
-        <v>49.6757867245891</v>
+        <v>0.0148269911861837</v>
       </c>
       <c r="M76" t="n">
-        <v>7.27056182666083</v>
+        <v>0.00217008251364328</v>
       </c>
       <c r="N76" t="n">
-        <v>9.61567455114059</v>
+        <v>0.00287004054126838</v>
       </c>
       <c r="O76" t="n">
         <v>266.168</v>
@@ -20971,7 +20967,7 @@
         <v>225.236</v>
       </c>
       <c r="S76" t="n">
-        <v>84.6217426587719</v>
+        <v>0.882172075914178</v>
       </c>
       <c r="T76" t="n">
         <v>920655</v>
@@ -21243,13 +21239,13 @@
         <v>54.9164496826372</v>
       </c>
       <c r="L77" t="n">
-        <v>31.4517593410172</v>
+        <v>0.00362163621743314</v>
       </c>
       <c r="M77" t="n">
-        <v>19.8915</v>
+        <v>0.00229048480366317</v>
       </c>
       <c r="N77" t="n">
-        <v>56.2506817575264</v>
+        <v>0.00647720542750961</v>
       </c>
       <c r="O77"/>
       <c r="P77"/>
@@ -21456,11 +21452,11 @@
         <v>12.0370652056091</v>
       </c>
       <c r="L78" t="n">
-        <v>99.9000975064298</v>
+        <v>0.0715810700889551</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>97.7613370301392</v>
+        <v>0.0700485914690319</v>
       </c>
       <c r="O78" t="n">
         <v>452.502545454545</v>
@@ -21475,7 +21471,7 @@
         <v>373.912272727273</v>
       </c>
       <c r="S78" t="n">
-        <v>82.6274121651594</v>
+        <v>1.32049054116238</v>
       </c>
       <c r="T78" t="n">
         <v>2209932</v>
@@ -21745,9 +21741,7 @@
       <c r="R79" t="n">
         <v>1.759</v>
       </c>
-      <c r="S79" t="n">
-        <v>46.3871308016878</v>
-      </c>
+      <c r="S79"/>
       <c r="T79" t="n">
         <v>72625</v>
       </c>
@@ -22107,13 +22101,13 @@
         <v>32.3859742736859</v>
       </c>
       <c r="L81" t="n">
-        <v>86.5986998750521</v>
+        <v>0.195828682015923</v>
       </c>
       <c r="M81" t="n">
-        <v>69.927234256639</v>
+        <v>0.158128911187515</v>
       </c>
       <c r="N81" t="n">
-        <v>53.4074311790264</v>
+        <v>0.120772100190131</v>
       </c>
       <c r="O81" t="n">
         <v>1989.1988</v>
@@ -22128,7 +22122,7 @@
         <v>1026.0057</v>
       </c>
       <c r="S81" t="n">
-        <v>51.7581463114247</v>
+        <v>0.000034404814843074</v>
       </c>
       <c r="T81" t="n">
         <v>7265539</v>
@@ -22563,13 +22557,13 @@
         <v>18.510253170843</v>
       </c>
       <c r="L83" t="n">
-        <v>92.2908026484475</v>
+        <v>0.0151290090835077</v>
       </c>
       <c r="M83" t="n">
-        <v>78.6369603442722</v>
+        <v>0.012890767586882</v>
       </c>
       <c r="N83" t="n">
-        <v>84.7519072064404</v>
+        <v>0.0138931761039615</v>
       </c>
       <c r="O83" t="n">
         <v>38.335</v>
@@ -22584,7 +22578,7 @@
         <v>18.0065</v>
       </c>
       <c r="S83" t="n">
-        <v>46.8767483391135</v>
+        <v>0.075636803543864</v>
       </c>
       <c r="T83" t="n">
         <v>547559</v>
@@ -23037,13 +23031,13 @@
         <v>32.52370862305</v>
       </c>
       <c r="L85" t="n">
-        <v>85.6800074182364</v>
+        <v>0.104316825072045</v>
       </c>
       <c r="M85" t="n">
-        <v>81.2598583255649</v>
+        <v>0.0989352204995593</v>
       </c>
       <c r="N85" t="n">
-        <v>70.42238703045</v>
+        <v>0.0857404200860012</v>
       </c>
       <c r="O85" t="n">
         <v>1099.67254545455</v>
@@ -23058,7 +23052,7 @@
         <v>505.143333333333</v>
       </c>
       <c r="S85" t="n">
-        <v>47.7600456721278</v>
+        <v>0.0000190715589677111</v>
       </c>
       <c r="T85" t="n">
         <v>4037254</v>
@@ -23332,7 +23326,7 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>94.5636003250076</v>
+        <v>0.0515085206850202</v>
       </c>
       <c r="O86" t="n">
         <v>163.904727272727</v>
@@ -23347,7 +23341,7 @@
         <v>124.860090909091</v>
       </c>
       <c r="S86" t="n">
-        <v>73.4840379194437</v>
+        <v>0.427369421121309</v>
       </c>
       <c r="T86" t="n">
         <v>1738221</v>
@@ -23591,13 +23585,13 @@
         <v>47.9540223810092</v>
       </c>
       <c r="L87" t="n">
-        <v>42.2920330842368</v>
+        <v>0.0627836606631476</v>
       </c>
       <c r="M87" t="n">
-        <v>16.7761601250362</v>
+        <v>0.0249046609422396</v>
       </c>
       <c r="N87" t="n">
-        <v>21.5681808282614</v>
+        <v>0.0320185445695134</v>
       </c>
       <c r="O87" t="n">
         <v>1209.691</v>
@@ -23612,7 +23606,7 @@
         <v>1130.366</v>
       </c>
       <c r="S87" t="n">
-        <v>93.4425402850811</v>
+        <v>0.0000601925944250055</v>
       </c>
       <c r="T87" t="n">
         <v>4889165</v>
@@ -23884,11 +23878,11 @@
         <v>4.82716566606673</v>
       </c>
       <c r="L88" t="n">
-        <v>99.9182421937765</v>
+        <v>0.0865879627081363</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>98.5698569856986</v>
+        <v>0.0854194680914393</v>
       </c>
       <c r="O88" t="n">
         <v>197.655636363636</v>
@@ -23903,7 +23897,7 @@
         <v>64.2093636363636</v>
       </c>
       <c r="S88" t="n">
-        <v>32.5489040640972</v>
+        <v>0.228496823758599</v>
       </c>
       <c r="T88" t="n">
         <v>2770705</v>
@@ -24161,13 +24155,13 @@
         <v>34.1867655988531</v>
       </c>
       <c r="L89" t="n">
-        <v>79.9450791944683</v>
+        <v>2.84473959910297</v>
       </c>
       <c r="M89" t="n">
-        <v>69.1159083457178</v>
+        <v>2.45939791892332</v>
       </c>
       <c r="N89" t="n">
-        <v>60.2375880953256</v>
+        <v>2.14347466955894</v>
       </c>
       <c r="O89" t="n">
         <v>39662.0486363636</v>
@@ -24182,7 +24176,7 @@
         <v>30083.3285454545</v>
       </c>
       <c r="S89" t="n">
-        <v>75.808365951117</v>
+        <v>0.00107238657014717</v>
       </c>
       <c r="T89" t="n">
         <v>118656904</v>
@@ -24601,13 +24595,13 @@
         <v>45.6357930611661</v>
       </c>
       <c r="L91" t="n">
-        <v>85.8398560241495</v>
+        <v>22.2483671854257</v>
       </c>
       <c r="M91" t="n">
-        <v>54.3333923741452</v>
+        <v>14.0823775802898</v>
       </c>
       <c r="N91" t="n">
-        <v>47.430720895505</v>
+        <v>12.2933115597929</v>
       </c>
       <c r="O91" t="n">
         <v>168480.78075</v>
@@ -24622,7 +24616,7 @@
         <v>162993.468</v>
       </c>
       <c r="S91" t="n">
-        <v>96.5972823166385</v>
+        <v>0.00693650951608553</v>
       </c>
       <c r="T91" t="n">
         <v>849365344</v>
@@ -24894,11 +24888,11 @@
         <v>5.35546225741045</v>
       </c>
       <c r="L92" t="n">
-        <v>97.1304214921245</v>
+        <v>0.0504411678675981</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>93.4551991492004</v>
+        <v>0.0485325742024794</v>
       </c>
       <c r="O92" t="n">
         <v>109.113090909091</v>
@@ -24913,7 +24907,7 @@
         <v>74.9224545454545</v>
       </c>
       <c r="S92" t="n">
-        <v>68.6341355756834</v>
+        <v>0.260381196724355</v>
       </c>
       <c r="T92" t="n">
         <v>1750490</v>
@@ -25171,11 +25165,11 @@
         <v>17.4087568767143</v>
       </c>
       <c r="L93" t="n">
-        <v>91.7742293975605</v>
+        <v>0.587976080600917</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>76.1982145151267</v>
+        <v>0.488184186492151</v>
       </c>
       <c r="O93" t="n">
         <v>3725.18818181818</v>
@@ -25190,7 +25184,7 @@
         <v>2903.04863636364</v>
       </c>
       <c r="S93" t="n">
-        <v>77.9673556829822</v>
+        <v>0.000107816986808461</v>
       </c>
       <c r="T93" t="n">
         <v>21302584</v>
@@ -25448,13 +25442,13 @@
         <v>9.92504885366839</v>
       </c>
       <c r="L94" t="n">
-        <v>82.7052162909533</v>
+        <v>0.265598575173561</v>
       </c>
       <c r="M94" t="n">
-        <v>86.2910657213463</v>
+        <v>0.277114130566691</v>
       </c>
       <c r="N94" t="n">
-        <v>83.5824224422665</v>
+        <v>0.268415624863663</v>
       </c>
       <c r="O94"/>
       <c r="P94"/>
@@ -25661,11 +25655,11 @@
         <v>4.58158937393238</v>
       </c>
       <c r="L95" t="n">
-        <v>100</v>
+        <v>0.000616561777658921</v>
       </c>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>100</v>
+        <v>0.000616561777658921</v>
       </c>
       <c r="O95" t="n">
         <v>8.166</v>
@@ -25680,7 +25674,7 @@
         <v>2.27128571428571</v>
       </c>
       <c r="S95" t="n">
-        <v>28.2487755116589</v>
+        <v>0.00856168159023417</v>
       </c>
       <c r="T95" t="n">
         <v>20437</v>
@@ -25938,11 +25932,11 @@
         <v>1.18234210137838</v>
       </c>
       <c r="L96" t="n">
-        <v>100</v>
+        <v>0.0190693518773083</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>99.6617619493908</v>
+        <v>0.0190048520732546</v>
       </c>
       <c r="O96" t="n">
         <v>37.227625</v>
@@ -25957,7 +25951,7 @@
         <v>7.188125</v>
       </c>
       <c r="S96" t="n">
-        <v>19.1642955361148</v>
+        <v>0.0269070851107612</v>
       </c>
       <c r="T96" t="n">
         <v>616589</v>
@@ -26217,7 +26211,7 @@
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>99.8994974874372</v>
+        <v>0.540714132330824</v>
       </c>
       <c r="O97" t="n">
         <v>849.152909090909</v>
@@ -26232,7 +26226,7 @@
         <v>333.705818181818</v>
       </c>
       <c r="S97" t="n">
-        <v>39.3430595689952</v>
+        <v>1.16870446462744</v>
       </c>
       <c r="T97" t="n">
         <v>17479118</v>
@@ -26476,13 +26470,13 @@
         <v>17.3198870385536</v>
       </c>
       <c r="L98" t="n">
-        <v>84.9285980443685</v>
+        <v>0.0314407569992159</v>
       </c>
       <c r="M98" t="n">
-        <v>63.3387532587102</v>
+        <v>0.0234481481585277</v>
       </c>
       <c r="N98" t="n">
-        <v>88.3279463830594</v>
+        <v>0.0326992033592586</v>
       </c>
       <c r="O98" t="n">
         <v>202.9762</v>
@@ -26497,7 +26491,7 @@
         <v>178.6195</v>
       </c>
       <c r="S98" t="n">
-        <v>88.0059595300815</v>
+        <v>0.656192165053852</v>
       </c>
       <c r="T98" t="n">
         <v>1238482</v>
@@ -26769,11 +26763,11 @@
         <v>3.45269594611148</v>
       </c>
       <c r="L99" t="n">
-        <v>96.8991843287692</v>
+        <v>0.0263012761916576</v>
       </c>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>96.4100521565003</v>
+        <v>0.0261685113965132</v>
       </c>
       <c r="O99" t="n">
         <v>76.34</v>
@@ -26788,7 +26782,7 @@
         <v>10.075</v>
       </c>
       <c r="S99" t="n">
-        <v>13.232400583542</v>
+        <v>0.0296120607140681</v>
       </c>
       <c r="T99" t="n">
         <v>836811</v>
@@ -26888,7 +26882,7 @@
         <v>80.452</v>
       </c>
       <c r="BC99" t="n">
-        <v>3.74238864984301</v>
+        <v>3.742388649843</v>
       </c>
       <c r="BD99" t="n">
         <v>2295.065</v>
@@ -27061,7 +27055,7 @@
         <v>1514.718</v>
       </c>
       <c r="S100" t="n">
-        <v>66.6100762215027</v>
+        <v>0.0000534289411523493</v>
       </c>
       <c r="T100" t="n">
         <v>10513072</v>
@@ -27291,13 +27285,13 @@
         <v>21.1867424080207</v>
       </c>
       <c r="L101" t="n">
-        <v>89.9901756705957</v>
+        <v>0.196169713998863</v>
       </c>
       <c r="M101" t="n">
-        <v>98.7255509022698</v>
+        <v>0.215211971090825</v>
       </c>
       <c r="N101" t="n">
-        <v>98.5889243466586</v>
+        <v>0.214914138664794</v>
       </c>
       <c r="O101"/>
       <c r="P101"/>
@@ -27504,13 +27498,13 @@
         <v>37.0588429011319</v>
       </c>
       <c r="L102" t="n">
-        <v>47.5337132499359</v>
+        <v>0.477418129118918</v>
       </c>
       <c r="M102" t="n">
-        <v>34.6468606563256</v>
+        <v>0.347985424732395</v>
       </c>
       <c r="N102" t="n">
-        <v>32.3782604919664</v>
+        <v>0.325200105174204</v>
       </c>
       <c r="O102" t="n">
         <v>6288.368</v>
@@ -27525,7 +27519,7 @@
         <v>4712.152</v>
       </c>
       <c r="S102" t="n">
-        <v>74.9344185963671</v>
+        <v>0.000184331515390782</v>
       </c>
       <c r="T102" t="n">
         <v>31006755</v>
@@ -27797,13 +27791,13 @@
         <v>30.6627770334927</v>
       </c>
       <c r="L103" t="n">
-        <v>81.7909158185486</v>
+        <v>0.0905917226735039</v>
       </c>
       <c r="M103" t="n">
-        <v>88.2023591743888</v>
+        <v>0.0976930455113323</v>
       </c>
       <c r="N103" t="n">
-        <v>98.0157806841614</v>
+        <v>0.108562403691204</v>
       </c>
       <c r="O103" t="n">
         <v>859.8108</v>
@@ -27818,7 +27812,7 @@
         <v>434.4234</v>
       </c>
       <c r="S103" t="n">
-        <v>50.443711975252</v>
+        <v>1.37390929934268</v>
       </c>
       <c r="T103" t="n">
         <v>3483856</v>
@@ -28090,13 +28084,13 @@
         <v>46.8369591701807</v>
       </c>
       <c r="L104" t="n">
-        <v>64.9549835661696</v>
+        <v>0.226790239965633</v>
       </c>
       <c r="M104" t="n">
-        <v>60.9211713865088</v>
+        <v>0.212706190028655</v>
       </c>
       <c r="N104" t="n">
-        <v>42.9738026851586</v>
+        <v>0.150042975736798</v>
       </c>
       <c r="O104" t="n">
         <v>3786.5902</v>
@@ -28111,7 +28105,7 @@
         <v>3183.1268</v>
       </c>
       <c r="S104" t="n">
-        <v>83.3240038296222</v>
+        <v>0.000100170957978246</v>
       </c>
       <c r="T104" t="n">
         <v>11334501</v>
@@ -28381,13 +28375,13 @@
       </c>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>55.7896696368732</v>
+        <v>0.000927414975263542</v>
       </c>
       <c r="M105" t="n">
-        <v>51.4818106436828</v>
+        <v>0.000855803636325482</v>
       </c>
       <c r="N105" t="n">
-        <v>34.2239430592809</v>
+        <v>0.000568918896855522</v>
       </c>
       <c r="O105" t="n">
         <v>4.339</v>
@@ -28401,9 +28395,7 @@
       <c r="R105" t="n">
         <v>2.047</v>
       </c>
-      <c r="S105" t="n">
-        <v>47.1767688407467</v>
-      </c>
+      <c r="S105"/>
       <c r="T105" t="n">
         <v>56113</v>
       </c>
@@ -28820,7 +28812,7 @@
         <v>1263.88072727273</v>
       </c>
       <c r="S107" t="n">
-        <v>86.9622772445861</v>
+        <v>0.0000446189684836183</v>
       </c>
       <c r="T107" t="n">
         <v>8951455</v>
@@ -29215,13 +29207,13 @@
         <v>66.431192443811</v>
       </c>
       <c r="L109" t="n">
-        <v>68.0858250426507</v>
+        <v>0.0904764119330017</v>
       </c>
       <c r="M109" t="n">
-        <v>45.5587478259151</v>
+        <v>0.060541118990144</v>
       </c>
       <c r="N109" t="n">
-        <v>55.4879595101772</v>
+        <v>0.073735634088588</v>
       </c>
       <c r="O109" t="n">
         <v>1851.8605</v>
@@ -29236,7 +29228,7 @@
         <v>1809.5705</v>
       </c>
       <c r="S109" t="n">
-        <v>97.6343264973678</v>
+        <v>0.0000592487964030782</v>
       </c>
       <c r="T109" t="n">
         <v>4393658</v>
@@ -29523,7 +29515,7 @@
         <v>30.189</v>
       </c>
       <c r="S110" t="n">
-        <v>53.345938400099</v>
+        <v>0.131245287264116</v>
       </c>
       <c r="T110" t="n">
         <v>631439</v>
@@ -29753,11 +29745,11 @@
         <v>43.4085973469043</v>
       </c>
       <c r="L111" t="n">
-        <v>60.5175160986517</v>
+        <v>0.0402968089407107</v>
       </c>
       <c r="M111"/>
       <c r="N111" t="n">
-        <v>6.3551562626385</v>
+        <v>0.00423170900283547</v>
       </c>
       <c r="O111" t="n">
         <v>352.204</v>
@@ -29772,7 +29764,7 @@
         <v>298.311</v>
       </c>
       <c r="S111" t="n">
-        <v>76.6911887912316</v>
+        <v>2.23741856656935</v>
       </c>
       <c r="T111" t="n">
         <v>2052307</v>
@@ -30195,13 +30187,13 @@
         <v>11.4738431806598</v>
       </c>
       <c r="L113" t="n">
-        <v>94.7661657545454</v>
+        <v>0.00395969862126446</v>
       </c>
       <c r="M113" t="n">
-        <v>87.1940631521265</v>
+        <v>0.00364330675296274</v>
       </c>
       <c r="N113" t="n">
-        <v>84.3614819971994</v>
+        <v>0.00352495050625296</v>
       </c>
       <c r="O113" t="n">
         <v>8.26766666666667</v>
@@ -30601,13 +30593,13 @@
         <v>28.7836128256326</v>
       </c>
       <c r="L115" t="n">
-        <v>84.7084526555648</v>
+        <v>0.431291235475671</v>
       </c>
       <c r="M115" t="n">
-        <v>83.44892291685</v>
+        <v>0.424878367336791</v>
       </c>
       <c r="N115" t="n">
-        <v>88.2587167945858</v>
+        <v>0.449367327751956</v>
       </c>
       <c r="O115" t="n">
         <v>2172.11333333333</v>
@@ -30622,7 +30614,7 @@
         <v>1484.62277777778</v>
       </c>
       <c r="S115" t="n">
-        <v>68.3395734246642</v>
+        <v>0.0000549913459516777</v>
       </c>
       <c r="T115" t="n">
         <v>16746064</v>
@@ -30894,13 +30886,13 @@
         <v>31.0803583848686</v>
       </c>
       <c r="L116" t="n">
-        <v>64.3530882649374</v>
+        <v>0.0292564468295959</v>
       </c>
       <c r="M116" t="n">
-        <v>3.55039035767733</v>
+        <v>0.00161409202765939</v>
       </c>
       <c r="N116" t="n">
-        <v>38.1557032263032</v>
+        <v>0.0173464915637062</v>
       </c>
       <c r="O116" t="n">
         <v>192.55</v>
@@ -30915,7 +30907,7 @@
         <v>141.272</v>
       </c>
       <c r="S116" t="n">
-        <v>73.3689950662166</v>
+        <v>0.595269537204044</v>
       </c>
       <c r="T116" t="n">
         <v>1521082</v>
@@ -31187,11 +31179,11 @@
         <v>8.28485843538775</v>
       </c>
       <c r="L117" t="n">
-        <v>89.6041950226229</v>
+        <v>0.0254535699391672</v>
       </c>
       <c r="M117"/>
       <c r="N117" t="n">
-        <v>81.305908425716</v>
+        <v>0.0230963028690674</v>
       </c>
       <c r="O117" t="n">
         <v>109.043727272727</v>
@@ -31206,7 +31198,7 @@
         <v>56.4503636363636</v>
       </c>
       <c r="S117" t="n">
-        <v>51.5822819118756</v>
+        <v>0.199581014253132</v>
       </c>
       <c r="T117" t="n">
         <v>898175</v>
@@ -31464,11 +31456,11 @@
         <v>1.2021365390143</v>
       </c>
       <c r="L118" t="n">
-        <v>99.3874458874459</v>
+        <v>0.00164832005991239</v>
       </c>
       <c r="M118"/>
       <c r="N118" t="n">
-        <v>98.7668031397003</v>
+        <v>0.00163802682939405</v>
       </c>
       <c r="O118" t="n">
         <v>2.77627272727273</v>
@@ -31483,7 +31475,7 @@
         <v>1.2815</v>
       </c>
       <c r="S118" t="n">
-        <v>47.7874061686763</v>
+        <v>0.00515598514586288</v>
       </c>
       <c r="T118" t="n">
         <v>54417</v>
@@ -31741,11 +31733,11 @@
         <v>7.90528256159928</v>
       </c>
       <c r="L119" t="n">
-        <v>97.7097524872603</v>
+        <v>0.0184536929444895</v>
       </c>
       <c r="M119"/>
       <c r="N119" t="n">
-        <v>81.7145455434326</v>
+        <v>0.0154328006588044</v>
       </c>
       <c r="O119" t="n">
         <v>70.1501818181818</v>
@@ -31760,7 +31752,7 @@
         <v>28.7884545454545</v>
       </c>
       <c r="S119" t="n">
-        <v>40.7969902779723</v>
+        <v>0.101667827071047</v>
       </c>
       <c r="T119" t="n">
         <v>608174</v>
@@ -32183,11 +32175,11 @@
         <v>36.913363463733</v>
       </c>
       <c r="L121" t="n">
-        <v>53.7677203557712</v>
+        <v>0.214680581561175</v>
       </c>
       <c r="M121"/>
       <c r="N121" t="n">
-        <v>65.2700905684702</v>
+        <v>0.260606566710908</v>
       </c>
       <c r="O121" t="n">
         <v>2241.69</v>
@@ -32202,7 +32194,7 @@
         <v>1449.16</v>
       </c>
       <c r="S121" t="n">
-        <v>64.6458698571167</v>
+        <v>0.0000883983700935313</v>
       </c>
       <c r="T121" t="n">
         <v>13434809</v>
@@ -32607,13 +32599,13 @@
         <v>57.02528851437</v>
       </c>
       <c r="L123" t="n">
-        <v>82.4798728610432</v>
+        <v>0.0391610260625702</v>
       </c>
       <c r="M123" t="n">
-        <v>82.2589168293215</v>
+        <v>0.0390561172573456</v>
       </c>
       <c r="N123" t="n">
-        <v>72.5378538349391</v>
+        <v>0.0344406057625564</v>
       </c>
       <c r="O123" t="n">
         <v>950.709181818182</v>
@@ -32628,7 +32620,7 @@
         <v>885.123727272727</v>
       </c>
       <c r="S123" t="n">
-        <v>93.0776819761728</v>
+        <v>0.0000333292221791789</v>
       </c>
       <c r="T123" t="n">
         <v>1525908</v>
@@ -32900,13 +32892,13 @@
         <v>72.7011679002672</v>
       </c>
       <c r="L124" t="n">
-        <v>31.7077086853574</v>
+        <v>0.147644485617819</v>
       </c>
       <c r="M124" t="n">
-        <v>15.7315296075727</v>
+        <v>0.0732526471698084</v>
       </c>
       <c r="N124" t="n">
-        <v>7.21184143995319</v>
+        <v>0.0335813801724146</v>
       </c>
       <c r="O124" t="n">
         <v>7632.313</v>
@@ -32921,7 +32913,7 @@
         <v>7232.0215</v>
       </c>
       <c r="S124" t="n">
-        <v>94.7726427795699</v>
+        <v>0.000287341605532479</v>
       </c>
       <c r="T124" t="n">
         <v>14507231</v>
@@ -33193,13 +33185,13 @@
         <v>9.67019418690776</v>
       </c>
       <c r="L125" t="n">
-        <v>98.3298562974713</v>
+        <v>0.00753872604243309</v>
       </c>
       <c r="M125" t="n">
-        <v>94.9742030782473</v>
+        <v>0.00728145575581121</v>
       </c>
       <c r="N125" t="n">
-        <v>89.2967247842878</v>
+        <v>0.0068461764308772</v>
       </c>
       <c r="O125" t="n">
         <v>16.7915</v>
@@ -33214,7 +33206,7 @@
         <v>10.87375</v>
       </c>
       <c r="S125" t="n">
-        <v>65.5817383660167</v>
+        <v>0.036707614861897</v>
       </c>
       <c r="T125" t="n">
         <v>223310</v>
@@ -33486,13 +33478,13 @@
         <v>14.0428499292493</v>
       </c>
       <c r="L126" t="n">
-        <v>91.6048093783788</v>
+        <v>0.669354936348107</v>
       </c>
       <c r="M126" t="n">
-        <v>91.3510707398271</v>
+        <v>0.667500872010117</v>
       </c>
       <c r="N126" t="n">
-        <v>76.2254979756868</v>
+        <v>0.556978543941614</v>
       </c>
       <c r="O126" t="n">
         <v>6730.03172727273</v>
@@ -33507,7 +33499,7 @@
         <v>3523.81945454545</v>
       </c>
       <c r="S126" t="n">
-        <v>52.4217794904383</v>
+        <v>0.000126897190525358</v>
       </c>
       <c r="T126" t="n">
         <v>24461683</v>
@@ -33777,13 +33769,13 @@
       </c>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>91.6605268459498</v>
+        <v>0.000333252411406481</v>
       </c>
       <c r="M127" t="n">
-        <v>80.2466511</v>
+        <v>0.000291754705177665</v>
       </c>
       <c r="N127" t="n">
-        <v>62.465731980785</v>
+        <v>0.000227108184178928</v>
       </c>
       <c r="O127" t="n">
         <v>1.053</v>
@@ -34022,11 +34014,11 @@
         <v>16.8422225284365</v>
       </c>
       <c r="L128" t="n">
-        <v>97.6659218174353</v>
+        <v>0.0252542846723502</v>
       </c>
       <c r="M128"/>
       <c r="N128" t="n">
-        <v>91.0059032280359</v>
+        <v>0.0235321486166005</v>
       </c>
       <c r="O128" t="n">
         <v>116.458454545455</v>
@@ -34041,7 +34033,7 @@
         <v>100.160363636364</v>
       </c>
       <c r="S128" t="n">
-        <v>85.879297520125</v>
+        <v>0.350933968940481</v>
       </c>
       <c r="T128" t="n">
         <v>867892</v>
@@ -34299,13 +34291,13 @@
         <v>67.2265630819126</v>
       </c>
       <c r="L129" t="n">
-        <v>61.1267087416252</v>
+        <v>0.192289557714761</v>
       </c>
       <c r="M129" t="n">
-        <v>9.12037481487313</v>
+        <v>0.0286904509574971</v>
       </c>
       <c r="N129" t="n">
-        <v>27.5953205880612</v>
+        <v>0.0868080762094415</v>
       </c>
       <c r="O129" t="n">
         <v>3772.32233333333</v>
@@ -34320,7 +34312,7 @@
         <v>3696.9605</v>
       </c>
       <c r="S129" t="n">
-        <v>98.0093208538503</v>
+        <v>0.000145282545080303</v>
       </c>
       <c r="T129" t="n">
         <v>9741147</v>
@@ -34592,11 +34584,11 @@
         <v>1.20029376589289</v>
       </c>
       <c r="L130" t="n">
-        <v>100</v>
+        <v>0.000736211998680754</v>
       </c>
       <c r="M130"/>
       <c r="N130" t="n">
-        <v>100</v>
+        <v>0.000736211998680754</v>
       </c>
       <c r="O130" t="n">
         <v>2.293875</v>
@@ -34611,7 +34603,7 @@
         <v>1.5355</v>
       </c>
       <c r="S130" t="n">
-        <v>59.6205088970852</v>
+        <v>0.00497546069108612</v>
       </c>
       <c r="T130" t="n">
         <v>24315</v>
@@ -34869,13 +34861,13 @@
         <v>51.9139798784351</v>
       </c>
       <c r="L131" t="n">
-        <v>63.453934095155</v>
+        <v>0.669375074249815</v>
       </c>
       <c r="M131" t="n">
-        <v>70.6572313001093</v>
+        <v>0.745362602370281</v>
       </c>
       <c r="N131" t="n">
-        <v>66.9402863242784</v>
+        <v>0.706152577733381</v>
       </c>
       <c r="O131" t="n">
         <v>11252.45875</v>
@@ -34890,7 +34882,7 @@
         <v>8237.6525</v>
       </c>
       <c r="S131" t="n">
-        <v>73.2066198057877</v>
+        <v>0.000315364142552997</v>
       </c>
       <c r="T131" t="n">
         <v>34950742</v>
@@ -35162,11 +35154,11 @@
         <v>6.55018542657108</v>
       </c>
       <c r="L132" t="n">
-        <v>95.9322298526143</v>
+        <v>0.00604886374662163</v>
       </c>
       <c r="M132"/>
       <c r="N132" t="n">
-        <v>91.2628140972246</v>
+        <v>0.00575444069689086</v>
       </c>
       <c r="O132" t="n">
         <v>14.7525555555556</v>
@@ -35181,7 +35173,7 @@
         <v>11.9425555555556</v>
       </c>
       <c r="S132" t="n">
-        <v>78.1767788543875</v>
+        <v>0.0399630446813057</v>
       </c>
       <c r="T132" t="n">
         <v>204336</v>
@@ -35439,13 +35431,13 @@
         <v>30.6986935778043</v>
       </c>
       <c r="L133" t="n">
-        <v>48.2276137939045</v>
+        <v>0.0132377540321511</v>
       </c>
       <c r="M133" t="n">
-        <v>56.3398083277389</v>
+        <v>0.0154644293215147</v>
       </c>
       <c r="N133" t="n">
-        <v>43.3749130592823</v>
+        <v>0.011905760726592</v>
       </c>
       <c r="O133" t="n">
         <v>342.670818181818</v>
@@ -35460,7 +35452,7 @@
         <v>315.91675</v>
       </c>
       <c r="S133" t="n">
-        <v>95.9883526504108</v>
+        <v>1.19730882003435</v>
       </c>
       <c r="T133" t="n">
         <v>876508</v>
@@ -35879,13 +35871,13 @@
         <v>73.5157652988487</v>
       </c>
       <c r="L135" t="n">
-        <v>31.7140985122573</v>
+        <v>0.160931145885153</v>
       </c>
       <c r="M135" t="n">
-        <v>7.58948592432774</v>
+        <v>0.0385123564527381</v>
       </c>
       <c r="N135" t="n">
-        <v>14.4393670675422</v>
+        <v>0.0732716361821795</v>
       </c>
       <c r="O135" t="n">
         <v>7083.697</v>
@@ -35900,7 +35892,7 @@
         <v>6784.007</v>
       </c>
       <c r="S135" t="n">
-        <v>95.769299562079</v>
+        <v>0.000271232025831486</v>
       </c>
       <c r="T135" t="n">
         <v>15407703</v>
@@ -36172,13 +36164,13 @@
         <v>34.9818974267671</v>
       </c>
       <c r="L136" t="n">
-        <v>43.578461240471</v>
+        <v>0.0244405870986447</v>
       </c>
       <c r="M136" t="n">
-        <v>36.5514506909016</v>
+        <v>0.0204995515849733</v>
       </c>
       <c r="N136" t="n">
-        <v>17.950912298977</v>
+        <v>0.010067607323772</v>
       </c>
       <c r="O136" t="n">
         <v>283.0675</v>
@@ -36193,7 +36185,7 @@
         <v>216.7155</v>
       </c>
       <c r="S136" t="n">
-        <v>75.9946429414042</v>
+        <v>0.766549445871918</v>
       </c>
       <c r="T136" t="n">
         <v>1804646</v>
@@ -36465,11 +36457,11 @@
         <v>7.36812555687029</v>
       </c>
       <c r="L137" t="n">
-        <v>99.6922029942071</v>
+        <v>0.0217203964687919</v>
       </c>
       <c r="M137"/>
       <c r="N137" t="n">
-        <v>94.6021582706323</v>
+        <v>0.0206114051322642</v>
       </c>
       <c r="O137" t="n">
         <v>38.5633636363636</v>
@@ -36484,7 +36476,7 @@
         <v>15.4467272727273</v>
       </c>
       <c r="S137" t="n">
-        <v>40.2883355425608</v>
+        <v>0.0581412615081181</v>
       </c>
       <c r="T137" t="n">
         <v>727675</v>
@@ -36742,13 +36734,13 @@
         <v>65.5431060097855</v>
       </c>
       <c r="L138" t="n">
-        <v>61.4541854610821</v>
+        <v>0.24999683076003</v>
       </c>
       <c r="M138" t="n">
-        <v>12.5400758512532</v>
+        <v>0.0510132743080456</v>
       </c>
       <c r="N138" t="n">
-        <v>30.7327477110047</v>
+        <v>0.12502141995136</v>
       </c>
       <c r="O138" t="n">
         <v>3776.378</v>
@@ -37003,11 +36995,11 @@
         <v>12.2402103428454</v>
       </c>
       <c r="L139" t="n">
-        <v>91.0624814429615</v>
+        <v>0.216116011688316</v>
       </c>
       <c r="M139"/>
       <c r="N139" t="n">
-        <v>94.1116660510777</v>
+        <v>0.223352555278666</v>
       </c>
       <c r="O139"/>
       <c r="P139"/>
@@ -37200,13 +37192,13 @@
         <v>26.4913318503449</v>
       </c>
       <c r="L140" t="n">
-        <v>70.9746621303622</v>
+        <v>0.0253419120980555</v>
       </c>
       <c r="M140" t="n">
-        <v>27.4804268693254</v>
+        <v>0.00981204476691086</v>
       </c>
       <c r="N140" t="n">
-        <v>17.8228505652314</v>
+        <v>0.00636375149671414</v>
       </c>
       <c r="O140" t="n">
         <v>179.224333333333</v>
@@ -37221,7 +37213,7 @@
         <v>116.012166666667</v>
       </c>
       <c r="S140" t="n">
-        <v>63.984217685024</v>
+        <v>0.394059609282733</v>
       </c>
       <c r="T140" t="n">
         <v>1197828</v>
@@ -37704,13 +37696,13 @@
         <v>74.1578168927445</v>
       </c>
       <c r="L142" t="n">
-        <v>36.787519443995</v>
+        <v>0.176771724846789</v>
       </c>
       <c r="M142" t="n">
-        <v>13.4169179818864</v>
+        <v>0.0644710969815909</v>
       </c>
       <c r="N142" t="n">
-        <v>6.74028575502415</v>
+        <v>0.0323884827486066</v>
       </c>
       <c r="O142" t="n">
         <v>2674.98866666667</v>
@@ -37725,7 +37717,7 @@
         <v>2549.617</v>
       </c>
       <c r="S142" t="n">
-        <v>93.8748226634721</v>
+        <v>0.000180342624062091</v>
       </c>
       <c r="T142" t="n">
         <v>13435763</v>
@@ -37997,13 +37989,13 @@
         <v>39.2659276377281</v>
       </c>
       <c r="L143" t="n">
-        <v>51.2909020545029</v>
+        <v>1.43081113561215</v>
       </c>
       <c r="M143" t="n">
-        <v>22.8834819840938</v>
+        <v>0.638357672275468</v>
       </c>
       <c r="N143" t="n">
-        <v>31.6392203133996</v>
+        <v>0.882607771226049</v>
       </c>
       <c r="O143"/>
       <c r="P143"/>
@@ -38210,11 +38202,11 @@
         <v>30.1783147084365</v>
       </c>
       <c r="L144" t="n">
-        <v>59.8594451004337</v>
+        <v>0.0462052805003096</v>
       </c>
       <c r="M144"/>
       <c r="N144" t="n">
-        <v>58.0028223142797</v>
+        <v>0.044772160355718</v>
       </c>
       <c r="O144" t="n">
         <v>876.378</v>
@@ -38229,7 +38221,7 @@
         <v>412.649</v>
       </c>
       <c r="S144" t="n">
-        <v>49.7746775162418</v>
+        <v>1.34275648129035</v>
       </c>
       <c r="T144" t="n">
         <v>2497475</v>
@@ -38487,11 +38479,11 @@
         <v>2.46587100448059</v>
       </c>
       <c r="L145" t="n">
-        <v>100</v>
+        <v>0.0522840057047534</v>
       </c>
       <c r="M145"/>
       <c r="N145" t="n">
-        <v>99.8940316540316</v>
+        <v>0.0522286012087021</v>
       </c>
       <c r="O145" t="n">
         <v>188.983363636364</v>
@@ -38506,7 +38498,7 @@
         <v>83.2610909090909</v>
       </c>
       <c r="S145" t="n">
-        <v>44.0545936887471</v>
+        <v>0.326358122980877</v>
       </c>
       <c r="T145" t="n">
         <v>1409098</v>
@@ -38764,11 +38756,11 @@
         <v>2.23716727923282</v>
       </c>
       <c r="L146" t="n">
-        <v>100</v>
+        <v>0.0289903709778532</v>
       </c>
       <c r="M146"/>
       <c r="N146" t="n">
-        <v>98.3</v>
+        <v>0.0284975346712297</v>
       </c>
       <c r="O146" t="n">
         <v>58.0847272727273</v>
@@ -38783,7 +38775,7 @@
         <v>26.531</v>
       </c>
       <c r="S146" t="n">
-        <v>44.752840068698</v>
+        <v>0.0911803345937371</v>
       </c>
       <c r="T146" t="n">
         <v>929678</v>
@@ -39041,13 +39033,13 @@
         <v>65.3256337448337</v>
       </c>
       <c r="L147" t="n">
-        <v>87.0768999617459</v>
+        <v>0.579656928485608</v>
       </c>
       <c r="M147" t="n">
-        <v>49.2184132624298</v>
+        <v>0.327639066953106</v>
       </c>
       <c r="N147" t="n">
-        <v>54.1070283041352</v>
+        <v>0.360181791612211</v>
       </c>
       <c r="O147" t="n">
         <v>1881.603</v>
@@ -39062,7 +39054,7 @@
         <v>1148.261</v>
       </c>
       <c r="S147" t="n">
-        <v>61.0256786367794</v>
+        <v>0.0000908589045665376</v>
       </c>
       <c r="T147" t="n">
         <v>22468946</v>
@@ -39346,9 +39338,7 @@
       <c r="R148" t="n">
         <v>0.044</v>
       </c>
-      <c r="S148" t="n">
-        <v>42.7184466019417</v>
-      </c>
+      <c r="S148"/>
       <c r="T148" t="n">
         <v>0</v>
       </c>
@@ -39561,11 +39551,11 @@
         <v>6.42273090619088</v>
       </c>
       <c r="L149" t="n">
-        <v>100</v>
+        <v>0.0184296732096916</v>
       </c>
       <c r="M149"/>
       <c r="N149" t="n">
-        <v>100</v>
+        <v>0.0184296732096916</v>
       </c>
       <c r="O149"/>
       <c r="P149"/>
@@ -39758,11 +39748,11 @@
         <v>5.17018163616813</v>
       </c>
       <c r="L150" t="n">
-        <v>73.9901341650927</v>
+        <v>0.016295197090516</v>
       </c>
       <c r="M150"/>
       <c r="N150" t="n">
-        <v>96.4804842864257</v>
+        <v>0.0212483532375788</v>
       </c>
       <c r="O150"/>
       <c r="P150"/>
@@ -39955,13 +39945,13 @@
         <v>41.4932053089031</v>
       </c>
       <c r="L151" t="n">
-        <v>86.9286373420692</v>
+        <v>3.40242384707598</v>
       </c>
       <c r="M151" t="n">
-        <v>49.6716138271442</v>
+        <v>1.94416809667894</v>
       </c>
       <c r="N151" t="n">
-        <v>46.0169241528809</v>
+        <v>1.80112198803647</v>
       </c>
       <c r="O151" t="n">
         <v>21060.701</v>
@@ -39976,7 +39966,7 @@
         <v>17878.951875</v>
       </c>
       <c r="S151" t="n">
-        <v>84.9550625362568</v>
+        <v>0.000781758108025969</v>
       </c>
       <c r="T151" t="n">
         <v>123973649</v>
@@ -40248,11 +40238,11 @@
         <v>15.8115420356989</v>
       </c>
       <c r="L152" t="n">
-        <v>82.7732603482812</v>
+        <v>0.0317725688185971</v>
       </c>
       <c r="M152"/>
       <c r="N152" t="n">
-        <v>58.8737208751153</v>
+        <v>0.0225987153368222</v>
       </c>
       <c r="O152" t="n">
         <v>265.1418</v>
@@ -40267,7 +40257,7 @@
         <v>174.931</v>
       </c>
       <c r="S152" t="n">
-        <v>68.0287966318445</v>
+        <v>0.633536743535412</v>
       </c>
       <c r="T152" t="n">
         <v>1251073</v>
@@ -40525,13 +40515,13 @@
         <v>26.8151435354305</v>
       </c>
       <c r="L153" t="n">
-        <v>72.2446739377136</v>
+        <v>0.148137149844713</v>
       </c>
       <c r="M153" t="n">
-        <v>50.5710696818946</v>
+        <v>0.103695590539076</v>
       </c>
       <c r="N153" t="n">
-        <v>49.8239296174707</v>
+        <v>0.102163585567001</v>
       </c>
       <c r="O153" t="n">
         <v>4465.16372727273</v>
@@ -40546,7 +40536,7 @@
         <v>3388.65254545455</v>
       </c>
       <c r="S153" t="n">
-        <v>75.8916225756398</v>
+        <v>0.000115788201376814</v>
       </c>
       <c r="T153" t="n">
         <v>6889410</v>
@@ -40818,13 +40808,13 @@
         <v>29.2441034122242</v>
       </c>
       <c r="L154" t="n">
-        <v>87.6372181939985</v>
+        <v>1.40824486830453</v>
       </c>
       <c r="M154" t="n">
-        <v>78.5094653732105</v>
+        <v>1.26157075730557</v>
       </c>
       <c r="N154" t="n">
-        <v>72.2349056872603</v>
+        <v>1.16074468522453</v>
       </c>
       <c r="O154" t="n">
         <v>10995.34275</v>
@@ -40839,7 +40829,7 @@
         <v>6762.4485</v>
       </c>
       <c r="S154" t="n">
-        <v>61.387153823337</v>
+        <v>0.000249933850379342</v>
       </c>
       <c r="T154" t="n">
         <v>50775990</v>
@@ -41109,11 +41099,11 @@
       </c>
       <c r="K155"/>
       <c r="L155" t="n">
-        <v>99.1145566751232</v>
+        <v>0.000118786843367795</v>
       </c>
       <c r="M155"/>
       <c r="N155" t="n">
-        <v>92.5379865088702</v>
+        <v>0.0001109049535986</v>
       </c>
       <c r="O155" t="n">
         <v>0.237</v>
@@ -41338,13 +41328,13 @@
         <v>22.7159316009672</v>
       </c>
       <c r="L156" t="n">
-        <v>35.4886611116681</v>
+        <v>0.0767470081543589</v>
       </c>
       <c r="M156" t="n">
-        <v>24.7272603152563</v>
+        <v>0.0534746363938195</v>
       </c>
       <c r="N156" t="n">
-        <v>13.8414383794401</v>
+        <v>0.0299331941780606</v>
       </c>
       <c r="O156"/>
       <c r="P156"/>
@@ -41551,11 +41541,11 @@
         <v>11.4934913827449</v>
       </c>
       <c r="L157" t="n">
-        <v>91.5082132724867</v>
+        <v>0.404648051541353</v>
       </c>
       <c r="M157"/>
       <c r="N157" t="n">
-        <v>95.3658966987212</v>
+        <v>0.421706674216466</v>
       </c>
       <c r="O157" t="n">
         <v>1825.96990909091</v>
@@ -41570,7 +41560,7 @@
         <v>1568.66672727273</v>
       </c>
       <c r="S157" t="n">
-        <v>85.7684481959255</v>
+        <v>0.0000587531096186623</v>
       </c>
       <c r="T157" t="n">
         <v>14877599</v>
@@ -41993,11 +41983,11 @@
         <v>46.7852110152605</v>
       </c>
       <c r="L159" t="n">
-        <v>92.3328043090983</v>
+        <v>0.265377337945475</v>
       </c>
       <c r="M159"/>
       <c r="N159" t="n">
-        <v>70.8864012274822</v>
+        <v>0.203737388840798</v>
       </c>
       <c r="O159"/>
       <c r="P159"/>
@@ -42190,11 +42180,11 @@
         <v>8.61378610591501</v>
       </c>
       <c r="L160" t="n">
-        <v>98.4500352128699</v>
+        <v>0.11195210979076</v>
       </c>
       <c r="M160"/>
       <c r="N160" t="n">
-        <v>99.039000464514</v>
+        <v>0.112621849546286</v>
       </c>
       <c r="O160" t="n">
         <v>405.033636363636</v>
@@ -42209,7 +42199,7 @@
         <v>320.1993</v>
       </c>
       <c r="S160" t="n">
-        <v>75.7217725576659</v>
+        <v>1.07322366942048</v>
       </c>
       <c r="T160" t="n">
         <v>3521605</v>
@@ -42467,13 +42457,13 @@
         <v>22.6610902770711</v>
       </c>
       <c r="L161" t="n">
-        <v>88.9376487149351</v>
+        <v>0.0630423943398253</v>
       </c>
       <c r="M161" t="n">
-        <v>71.9936072473104</v>
+        <v>0.0510318121021934</v>
       </c>
       <c r="N161" t="n">
-        <v>77.710638982602</v>
+        <v>0.0550842620411923</v>
       </c>
       <c r="O161" t="n">
         <v>707.123818181818</v>
@@ -42488,7 +42478,7 @@
         <v>576.310636363636</v>
       </c>
       <c r="S161" t="n">
-        <v>81.3914074793029</v>
+        <v>1.77639681605016</v>
       </c>
       <c r="T161" t="n">
         <v>2341648</v>
@@ -42760,13 +42750,13 @@
         <v>9.39554351039748</v>
       </c>
       <c r="L162" t="n">
-        <v>94.7987418636785</v>
+        <v>0.0288681848063457</v>
       </c>
       <c r="M162" t="n">
-        <v>95.5085445606953</v>
+        <v>0.029084334462245</v>
       </c>
       <c r="N162" t="n">
-        <v>94.296309194112</v>
+        <v>0.0287151836285595</v>
       </c>
       <c r="O162" t="n">
         <v>78.5087272727273</v>
@@ -42781,7 +42771,7 @@
         <v>51.442</v>
       </c>
       <c r="S162" t="n">
-        <v>64.3942044227073</v>
+        <v>0.17668453026381</v>
       </c>
       <c r="T162" t="n">
         <v>962006</v>
@@ -43381,11 +43371,11 @@
         <v>26.5166060681112</v>
       </c>
       <c r="L165" t="n">
-        <v>100</v>
+        <v>0.269357921594447</v>
       </c>
       <c r="M165"/>
       <c r="N165" t="n">
-        <v>67.2945780494186</v>
+        <v>0.181263276779667</v>
       </c>
       <c r="O165" t="n">
         <v>2297.98209090909</v>
@@ -43400,7 +43390,7 @@
         <v>2115.92863636364</v>
       </c>
       <c r="S165" t="n">
-        <v>91.8125717952882</v>
+        <v>0.0000732826220617691</v>
       </c>
       <c r="T165" t="n">
         <v>8894686</v>
@@ -43658,11 +43648,11 @@
         <v>6.88998914317594</v>
       </c>
       <c r="L166" t="n">
-        <v>89.5546475891776</v>
+        <v>0.983286889544809</v>
       </c>
       <c r="M166"/>
       <c r="N166" t="n">
-        <v>67.2304076694552</v>
+        <v>0.738172503825662</v>
       </c>
       <c r="O166" t="n">
         <v>4835.4935</v>
@@ -43677,7 +43667,7 @@
         <v>1743.8306</v>
       </c>
       <c r="S166" t="n">
-        <v>35.8719478496563</v>
+        <v>0.0000614271258952497</v>
       </c>
       <c r="T166" t="n">
         <v>36697963</v>
@@ -43935,13 +43925,13 @@
         <v>66.2497155107197</v>
       </c>
       <c r="L167" t="n">
-        <v>52.6550129670612</v>
+        <v>0.146435433864608</v>
       </c>
       <c r="M167" t="n">
-        <v>9.5413048252511</v>
+        <v>0.0265347026425413</v>
       </c>
       <c r="N167" t="n">
-        <v>66.034574032912</v>
+        <v>0.183644461442315</v>
       </c>
       <c r="O167" t="n">
         <v>2386.65975</v>
@@ -43956,7 +43946,7 @@
         <v>660.347</v>
       </c>
       <c r="S167" t="n">
-        <v>34.523385778075</v>
+        <v>0.0000281952464992282</v>
       </c>
       <c r="T167" t="n">
         <v>8343332</v>
@@ -44228,11 +44218,11 @@
         <v>5.32096437424677</v>
       </c>
       <c r="L168" t="n">
-        <v>100</v>
+        <v>0.160621390684262</v>
       </c>
       <c r="M168"/>
       <c r="N168" t="n">
-        <v>92.2225</v>
+        <v>0.148129062023794</v>
       </c>
       <c r="O168"/>
       <c r="P168"/>
@@ -44425,11 +44415,11 @@
         <v>43.2752227773021</v>
       </c>
       <c r="L169" t="n">
-        <v>49.2083587130884</v>
+        <v>0.359097629046606</v>
       </c>
       <c r="M169"/>
       <c r="N169" t="n">
-        <v>21.3700109792178</v>
+        <v>0.155947495019702</v>
       </c>
       <c r="O169"/>
       <c r="P169"/>
@@ -44622,13 +44612,13 @@
         <v>32.413251607702</v>
       </c>
       <c r="L170" t="n">
-        <v>63.1177629021636</v>
+        <v>0.141614294319651</v>
       </c>
       <c r="M170" t="n">
-        <v>10.3012196652471</v>
+        <v>0.0231123519980724</v>
       </c>
       <c r="N170" t="n">
-        <v>39.2306149056741</v>
+        <v>0.0880198471895236</v>
       </c>
       <c r="O170" t="n">
         <v>1245.3544</v>
@@ -44643,7 +44633,7 @@
         <v>1094.3698</v>
       </c>
       <c r="S170" t="n">
-        <v>87.968989426141</v>
+        <v>0.0000346768934236786</v>
       </c>
       <c r="T170" t="n">
         <v>6907386</v>
@@ -45080,13 +45070,13 @@
         <v>41.1963216152262</v>
       </c>
       <c r="L172" t="n">
-        <v>64.3631705721671</v>
+        <v>0.0088397144972627</v>
       </c>
       <c r="M172" t="n">
-        <v>28.4039544441425</v>
+        <v>0.00390103292997273</v>
       </c>
       <c r="N172" t="n">
-        <v>18.3052734376359</v>
+        <v>0.00251406805389729</v>
       </c>
       <c r="O172" t="n">
         <v>151.195</v>
@@ -45101,7 +45091,7 @@
         <v>143.4</v>
       </c>
       <c r="S172" t="n">
-        <v>94.8444062303648</v>
+        <v>0.402670023685313</v>
       </c>
       <c r="T172" t="n">
         <v>424436</v>
@@ -45373,13 +45363,13 @@
         <v>56.207983326697</v>
       </c>
       <c r="L173" t="n">
-        <v>43.4290852661533</v>
+        <v>0.0542477430966097</v>
       </c>
       <c r="M173" t="n">
-        <v>9.54092558742978</v>
+        <v>0.0119176739965586</v>
       </c>
       <c r="N173" t="n">
-        <v>8.85567436696296</v>
+        <v>0.0110617192386652</v>
       </c>
       <c r="O173" t="n">
         <v>1056.1595</v>
@@ -45394,7 +45384,7 @@
         <v>1124.529</v>
       </c>
       <c r="S173" t="n">
-        <v>95.1595542128913</v>
+        <v>0.0000420123142981145</v>
       </c>
       <c r="T173" t="n">
         <v>3851931</v>
@@ -45666,13 +45656,13 @@
         <v>19.1788395711264</v>
       </c>
       <c r="L174" t="n">
-        <v>84.3096550743915</v>
+        <v>0.0479317746215663</v>
       </c>
       <c r="M174" t="n">
-        <v>86.2733246877262</v>
+        <v>0.0490481612234867</v>
       </c>
       <c r="N174" t="n">
-        <v>75.2270898038379</v>
+        <v>0.0427681492793714</v>
       </c>
       <c r="O174" t="n">
         <v>502.6205</v>
@@ -45687,7 +45677,7 @@
         <v>248.1055</v>
       </c>
       <c r="S174" t="n">
-        <v>49.2982639384506</v>
+        <v>0.8222413469697</v>
       </c>
       <c r="T174" t="n">
         <v>1711610</v>
@@ -46106,13 +46096,13 @@
         <v>31.5148405825544</v>
       </c>
       <c r="L176" t="n">
-        <v>27.6586585555294</v>
+        <v>0.0631763485569587</v>
       </c>
       <c r="M176" t="n">
-        <v>19.0097028635248</v>
+        <v>0.0434208915685164</v>
       </c>
       <c r="N176" t="n">
-        <v>18.2173480641883</v>
+        <v>0.0416110394065554</v>
       </c>
       <c r="O176" t="n">
         <v>278.595</v>
@@ -46127,7 +46117,7 @@
         <v>196.577</v>
       </c>
       <c r="S176" t="n">
-        <v>70.5601320913871</v>
+        <v>1.51649601665711</v>
       </c>
       <c r="T176" t="n">
         <v>7207934</v>
@@ -46399,13 +46389,13 @@
         <v>19.6661449883442</v>
       </c>
       <c r="L177" t="n">
-        <v>94.4996953459605</v>
+        <v>0.0880674767803232</v>
       </c>
       <c r="M177" t="n">
-        <v>98.0323251519205</v>
+        <v>0.0913596545198481</v>
       </c>
       <c r="N177" t="n">
-        <v>95.2308221042537</v>
+        <v>0.0887488386468746</v>
       </c>
       <c r="O177" t="n">
         <v>499.496909090909</v>
@@ -46420,7 +46410,7 @@
         <v>440.897363636364</v>
       </c>
       <c r="S177" t="n">
-        <v>88.1756676295716</v>
+        <v>1.66959856898054</v>
       </c>
       <c r="T177" t="n">
         <v>3037846</v>
@@ -46692,11 +46682,11 @@
         <v>61.0404547713571</v>
       </c>
       <c r="L178" t="n">
-        <v>36.4989745362474</v>
+        <v>0.0919718897879728</v>
       </c>
       <c r="M178"/>
       <c r="N178" t="n">
-        <v>6.653700555613</v>
+        <v>0.0167663180119013</v>
       </c>
       <c r="O178"/>
       <c r="P178"/>
@@ -46889,13 +46879,13 @@
         <v>20.3881821449305</v>
       </c>
       <c r="L179" t="n">
-        <v>68.4134757439421</v>
+        <v>0.00122120925937183</v>
       </c>
       <c r="M179" t="n">
-        <v>47.3921664025152</v>
+        <v>0.000845970063691243</v>
       </c>
       <c r="N179" t="n">
-        <v>29.4187200447725</v>
+        <v>0.000525136501644925</v>
       </c>
       <c r="O179"/>
       <c r="P179"/>
@@ -47100,13 +47090,13 @@
         <v>7.44390198737591</v>
       </c>
       <c r="L180" t="n">
-        <v>89.3713195029932</v>
+        <v>0.00506813739651363</v>
       </c>
       <c r="M180" t="n">
-        <v>66.8383284619406</v>
+        <v>0.0037903192420369</v>
       </c>
       <c r="N180" t="n">
-        <v>74.4238911369775</v>
+        <v>0.00422048715363033</v>
       </c>
       <c r="O180" t="n">
         <v>14.299</v>
@@ -47121,7 +47111,7 @@
         <v>8.643</v>
       </c>
       <c r="S180" t="n">
-        <v>60.4447863486957</v>
+        <v>0.032333843499075</v>
       </c>
       <c r="T180" t="n">
         <v>181371</v>
@@ -47393,11 +47383,11 @@
         <v>3.04379532806431</v>
       </c>
       <c r="L181" t="n">
-        <v>99.5275025132845</v>
+        <v>0.072754660811686</v>
       </c>
       <c r="M181"/>
       <c r="N181" t="n">
-        <v>96.5771587791016</v>
+        <v>0.070597957867897</v>
       </c>
       <c r="O181" t="n">
         <v>71.8434545454545</v>
@@ -47412,7 +47402,7 @@
         <v>16.4792857142857</v>
       </c>
       <c r="S181" t="n">
-        <v>22.6365441278491</v>
+        <v>0.0581185018235944</v>
       </c>
       <c r="T181" t="n">
         <v>2426037</v>
@@ -47685,7 +47675,7 @@
         <v>58.18</v>
       </c>
       <c r="S182" t="n">
-        <v>86.0687316875542</v>
+        <v>0.20859657215133</v>
       </c>
       <c r="T182" t="n">
         <v>942771</v>
@@ -47915,11 +47905,11 @@
         <v>1.95521876289102</v>
       </c>
       <c r="L183" t="n">
-        <v>99.2063406243243</v>
+        <v>0.0389954839899133</v>
       </c>
       <c r="M183"/>
       <c r="N183" t="n">
-        <v>99.0985709271815</v>
+        <v>0.0389531224687335</v>
       </c>
       <c r="O183" t="n">
         <v>93.058</v>
@@ -47934,7 +47924,7 @@
         <v>44.2553636363636</v>
       </c>
       <c r="S183" t="n">
-        <v>47.5440336165063</v>
+        <v>0.15590052750261</v>
       </c>
       <c r="T183" t="n">
         <v>1263481</v>
@@ -48192,13 +48182,13 @@
         <v>13.92182037283</v>
       </c>
       <c r="L184" t="n">
-        <v>57.0870739360783</v>
+        <v>0.0145565438246141</v>
       </c>
       <c r="M184" t="n">
-        <v>16.7887334408006</v>
+        <v>0.00428093291949808</v>
       </c>
       <c r="N184" t="n">
-        <v>61.4033907499442</v>
+        <v>0.0156571547077767</v>
       </c>
       <c r="O184" t="n">
         <v>37.674</v>
@@ -48213,7 +48203,7 @@
         <v>17.445</v>
       </c>
       <c r="S184" t="n">
-        <v>46.3051441312311</v>
+        <v>0.0614240224762908</v>
       </c>
       <c r="T184" t="n">
         <v>851142</v>
@@ -48644,9 +48634,7 @@
       <c r="R186" t="n">
         <v>0.645</v>
       </c>
-      <c r="S186" t="n">
-        <v>37.6312718786464</v>
-      </c>
+      <c r="S186"/>
       <c r="T186" t="n">
         <v>40468</v>
       </c>
@@ -48689,7 +48677,7 @@
         <v>0.645</v>
       </c>
       <c r="AM186" t="n">
-        <v>37.6312718786464</v>
+        <v>37.6312718786465</v>
       </c>
       <c r="AN186" t="n">
         <v>2017</v>
@@ -48739,7 +48727,7 @@
         <v>0.645</v>
       </c>
       <c r="BI186" t="n">
-        <v>37.6312718786464</v>
+        <v>37.6312718786465</v>
       </c>
       <c r="BJ186" t="n">
         <v>2017</v>
@@ -48859,13 +48847,13 @@
         <v>15.6079431329787</v>
       </c>
       <c r="L187" t="n">
-        <v>90.6194941025601</v>
+        <v>0.255197083281152</v>
       </c>
       <c r="M187" t="n">
-        <v>80.5939610017502</v>
+        <v>0.226963789429724</v>
       </c>
       <c r="N187" t="n">
-        <v>89.843799745733</v>
+        <v>0.253012620221185</v>
       </c>
       <c r="O187"/>
       <c r="P187"/>
@@ -49070,13 +49058,13 @@
       </c>
       <c r="K188"/>
       <c r="L188" t="n">
-        <v>91.78810634106</v>
+        <v>0.0000774717727896254</v>
       </c>
       <c r="M188" t="n">
-        <v>88.777398121365</v>
+        <v>0.0000749306494085046</v>
       </c>
       <c r="N188" t="n">
-        <v>91.591958856064</v>
+        <v>0.0000773062187326062</v>
       </c>
       <c r="O188"/>
       <c r="P188"/>
@@ -49267,13 +49255,13 @@
         <v>72.4025046818676</v>
       </c>
       <c r="L189" t="n">
-        <v>38.5319235715083</v>
+        <v>0.120459298606951</v>
       </c>
       <c r="M189" t="n">
-        <v>15.0184914617923</v>
+        <v>0.0469511194857579</v>
       </c>
       <c r="N189" t="n">
-        <v>5.2147806177672</v>
+        <v>0.0163025553198659</v>
       </c>
       <c r="O189" t="n">
         <v>3024.411</v>
@@ -49288,7 +49276,7 @@
         <v>2984.505</v>
       </c>
       <c r="S189" t="n">
-        <v>98.6805364747053</v>
+        <v>0.00010824717728968</v>
       </c>
       <c r="T189" t="n">
         <v>8974567</v>
@@ -49560,13 +49548,13 @@
         <v>36.4483281000287</v>
       </c>
       <c r="L190" t="n">
-        <v>47.19608069266</v>
+        <v>0.0610646240245151</v>
       </c>
       <c r="M190" t="n">
-        <v>6.23310908118848</v>
+        <v>0.00806470488566989</v>
       </c>
       <c r="N190" t="n">
-        <v>6.63455891405699</v>
+        <v>0.00858412053944964</v>
       </c>
       <c r="O190" t="n">
         <v>714.52</v>
@@ -49581,7 +49569,7 @@
         <v>688.013</v>
       </c>
       <c r="S190" t="n">
-        <v>96.2902368023288</v>
+        <v>2.95116038627736</v>
       </c>
       <c r="T190" t="n">
         <v>4027422</v>
@@ -49853,13 +49841,13 @@
         <v>35.710785792683</v>
       </c>
       <c r="L191" t="n">
-        <v>97.9102686619499</v>
+        <v>1.06658272061435</v>
       </c>
       <c r="M191" t="n">
-        <v>83.1619239670265</v>
+        <v>0.905922048100206</v>
       </c>
       <c r="N191" t="n">
-        <v>97.1045577519249</v>
+        <v>1.05780573178379</v>
       </c>
       <c r="O191" t="n">
         <v>12803.748125</v>
@@ -49874,7 +49862,7 @@
         <v>10761.034875</v>
       </c>
       <c r="S191" t="n">
-        <v>84.0199235673004</v>
+        <v>0.000417804840103044</v>
       </c>
       <c r="T191" t="n">
         <v>35160432</v>
@@ -50146,13 +50134,13 @@
         <v>49.156824652922</v>
       </c>
       <c r="L192" t="n">
-        <v>67.8419885315316</v>
+        <v>0.122076082121236</v>
       </c>
       <c r="M192" t="n">
-        <v>67.0097920403278</v>
+        <v>0.120578612937325</v>
       </c>
       <c r="N192" t="n">
-        <v>95.3624128317384</v>
+        <v>0.171596823620754</v>
       </c>
       <c r="O192" t="n">
         <v>822.626</v>
@@ -50167,7 +50155,7 @@
         <v>355.404</v>
       </c>
       <c r="S192" t="n">
-        <v>43.2035943429943</v>
+        <v>0.0000150959051803998</v>
       </c>
       <c r="T192" t="n">
         <v>5488074</v>
@@ -50439,13 +50427,13 @@
         <v>27.2135605205587</v>
       </c>
       <c r="L193" t="n">
-        <v>94.9231973632144</v>
+        <v>0.0789606391524875</v>
       </c>
       <c r="M193" t="n">
-        <v>89.4575683366537</v>
+        <v>0.0744141260419329</v>
       </c>
       <c r="N193" t="n">
-        <v>98.4342354394483</v>
+        <v>0.081881250955389</v>
       </c>
       <c r="O193"/>
       <c r="P193"/>
@@ -50652,13 +50640,13 @@
         <v>52.5230632656515</v>
       </c>
       <c r="L194" t="n">
-        <v>65.2573759389463</v>
+        <v>0.0160117934249773</v>
       </c>
       <c r="M194" t="n">
-        <v>21.9258336237445</v>
+        <v>0.00537980440681947</v>
       </c>
       <c r="N194" t="n">
-        <v>41.8927731909451</v>
+        <v>0.0102789672536084</v>
       </c>
       <c r="O194" t="n">
         <v>196.588</v>
@@ -50673,7 +50661,7 @@
         <v>175.166</v>
       </c>
       <c r="S194" t="n">
-        <v>76.4317427740031</v>
+        <v>0.64440466903833</v>
       </c>
       <c r="T194" t="n">
         <v>773699</v>
@@ -50945,13 +50933,13 @@
         <v>31.3586165985457</v>
       </c>
       <c r="L195" t="n">
-        <v>98.4037561098599</v>
+        <v>0.0023621293279685</v>
       </c>
       <c r="M195" t="n">
-        <v>66.2684799827697</v>
+        <v>0.00159073927942786</v>
       </c>
       <c r="N195" t="n">
-        <v>91.8658683457544</v>
+        <v>0.00220519084268021</v>
       </c>
       <c r="O195" t="n">
         <v>10.222</v>
@@ -50965,9 +50953,7 @@
       <c r="R195" t="n">
         <v>8.059</v>
       </c>
-      <c r="S195" t="n">
-        <v>78.8397573860301</v>
-      </c>
+      <c r="S195"/>
       <c r="T195" t="n">
         <v>80700</v>
       </c>
@@ -51251,7 +51237,7 @@
         <v>12.0101666666667</v>
       </c>
       <c r="S196" t="n">
-        <v>54.6824039820414</v>
+        <v>0.0446025981190602</v>
       </c>
       <c r="T196" t="n">
         <v>641563</v>
@@ -51481,13 +51467,13 @@
         <v>15.7467234011717</v>
       </c>
       <c r="L197" t="n">
-        <v>83.3681219858893</v>
+        <v>0.0901017801284321</v>
       </c>
       <c r="M197" t="n">
-        <v>67.1309319930936</v>
+        <v>0.0725531093921274</v>
       </c>
       <c r="N197" t="n">
-        <v>80.4397683930143</v>
+        <v>0.0869369028914447</v>
       </c>
       <c r="O197" t="n">
         <v>508.01</v>
@@ -51502,7 +51488,7 @@
         <v>275.446666666667</v>
       </c>
       <c r="S197" t="n">
-        <v>53.940725562201</v>
+        <v>1.01874491956973</v>
       </c>
       <c r="T197" t="n">
         <v>3626182</v>
@@ -51774,11 +51760,11 @@
         <v>21.2907923982959</v>
       </c>
       <c r="L198" t="n">
-        <v>93.8396256366385</v>
+        <v>0.573526024849387</v>
       </c>
       <c r="M198"/>
       <c r="N198" t="n">
-        <v>88.2999383272548</v>
+        <v>0.539668741000432</v>
       </c>
       <c r="O198" t="n">
         <v>5436.76727272727</v>
@@ -51793,7 +51779,7 @@
         <v>4809.46618181818</v>
       </c>
       <c r="S198" t="n">
-        <v>88.4712342200301</v>
+        <v>0.000172942238639131</v>
       </c>
       <c r="T198" t="n">
         <v>20124610</v>
@@ -52049,13 +52035,13 @@
       </c>
       <c r="K199"/>
       <c r="L199" t="n">
-        <v>99.475317691448</v>
+        <v>0.000130366011535296</v>
       </c>
       <c r="M199" t="n">
-        <v>96.3164171161089</v>
+        <v>0.000126226157766536</v>
       </c>
       <c r="N199" t="n">
-        <v>83.0488235633796</v>
+        <v>0.00010883849523596</v>
       </c>
       <c r="O199" t="n">
         <v>0.6875</v>
@@ -52069,9 +52055,7 @@
       <c r="R199" t="n">
         <v>0.076</v>
       </c>
-      <c r="S199" t="n">
-        <v>27.4368231046931</v>
-      </c>
+      <c r="S199"/>
       <c r="T199" t="n">
         <v>4030</v>
       </c>
@@ -52326,13 +52310,13 @@
         <v>68.2823427639824</v>
       </c>
       <c r="L200" t="n">
-        <v>36.9388778245097</v>
+        <v>0.383762624094304</v>
       </c>
       <c r="M200" t="n">
-        <v>22.2862911349265</v>
+        <v>0.231535067413287</v>
       </c>
       <c r="N200" t="n">
-        <v>16.6586103890924</v>
+        <v>0.173068387920569</v>
       </c>
       <c r="O200" t="n">
         <v>6324.54866666667</v>
@@ -52347,7 +52331,7 @@
         <v>5869.7</v>
       </c>
       <c r="S200" t="n">
-        <v>81.7576645305687</v>
+        <v>0.000450956412853066</v>
       </c>
       <c r="T200" t="n">
         <v>31896316</v>
@@ -52619,13 +52603,13 @@
         <v>70.2890650556885</v>
       </c>
       <c r="L201" t="n">
-        <v>38.2740328515907</v>
+        <v>0.32334620425887</v>
       </c>
       <c r="M201" t="n">
-        <v>16.2544819397837</v>
+        <v>0.13732091044085</v>
       </c>
       <c r="N201" t="n">
-        <v>16.6661981116701</v>
+        <v>0.140799165839951</v>
       </c>
       <c r="O201" t="n">
         <v>8812.11233333333</v>
@@ -52640,7 +52624,7 @@
         <v>8104.13866666667</v>
       </c>
       <c r="S201" t="n">
-        <v>91.9596944740878</v>
+        <v>0.000289936482474876</v>
       </c>
       <c r="T201" t="n">
         <v>25482464</v>
@@ -52912,11 +52896,11 @@
         <v>15.7039767963712</v>
       </c>
       <c r="L202" t="n">
-        <v>97.9799406730578</v>
+        <v>0.404724221477503</v>
       </c>
       <c r="M202"/>
       <c r="N202" t="n">
-        <v>95.4109732705657</v>
+        <v>0.394112627667255</v>
       </c>
       <c r="O202"/>
       <c r="P202"/>
@@ -53109,11 +53093,11 @@
         <v>9.25420747127894</v>
       </c>
       <c r="L203" t="n">
-        <v>89.7051728652905</v>
+        <v>0.00455417712132831</v>
       </c>
       <c r="M203"/>
       <c r="N203" t="n">
-        <v>93.7408927370446</v>
+        <v>0.00475906366823495</v>
       </c>
       <c r="O203" t="n">
         <v>147.857272727273</v>
@@ -53128,7 +53112,7 @@
         <v>48.6868181818182</v>
       </c>
       <c r="S203" t="n">
-        <v>33.0120148183593</v>
+        <v>0.170321170720078</v>
       </c>
       <c r="T203" t="n">
         <v>156815</v>
@@ -53386,11 +53370,11 @@
         <v>1.71103720099246</v>
       </c>
       <c r="L204" t="n">
-        <v>97.3634190888273</v>
+        <v>1.68383885610326</v>
       </c>
       <c r="M204"/>
       <c r="N204" t="n">
-        <v>99.4956983826803</v>
+        <v>1.72071528013042</v>
       </c>
       <c r="O204" t="n">
         <v>2518.23709090909</v>
@@ -53405,7 +53389,7 @@
         <v>829.110636363636</v>
       </c>
       <c r="S204" t="n">
-        <v>33.0521431999364</v>
+        <v>0.0000300441711519946</v>
       </c>
       <c r="T204" t="n">
         <v>57592357</v>
@@ -53663,13 +53647,13 @@
         <v>27.0711920130016</v>
       </c>
       <c r="L205" t="n">
-        <v>89.7014183123455</v>
+        <v>0.399791256230822</v>
       </c>
       <c r="M205" t="n">
-        <v>75.13738</v>
+        <v>0.334880630710812</v>
       </c>
       <c r="N205" t="n">
-        <v>94.9410483900733</v>
+        <v>0.423143822225549</v>
       </c>
       <c r="O205"/>
       <c r="P205"/>
@@ -53876,11 +53860,11 @@
         <v>11.4914569396838</v>
       </c>
       <c r="L206" t="n">
-        <v>96.81499572754</v>
+        <v>0.00150810104090303</v>
       </c>
       <c r="M206"/>
       <c r="N206" t="n">
-        <v>83.1052179399931</v>
+        <v>0.00129454187068796</v>
       </c>
       <c r="O206"/>
       <c r="P206"/>
@@ -54086,7 +54070,7 @@
         <v>542.689333333333</v>
       </c>
       <c r="S207" t="n">
-        <v>54.6821870482381</v>
+        <v>1.84848013640591</v>
       </c>
       <c r="T207" t="n">
         <v>3383200</v>
@@ -54626,13 +54610,13 @@
         <v>43.9582979129816</v>
       </c>
       <c r="L210" t="n">
-        <v>89.3422061274002</v>
+        <v>1.59978524611459</v>
       </c>
       <c r="M210" t="n">
-        <v>82.7095987054624</v>
+        <v>1.48102001793391</v>
       </c>
       <c r="N210" t="n">
-        <v>70.3732122718664</v>
+        <v>1.26012140951257</v>
       </c>
       <c r="O210" t="n">
         <v>22821.723</v>
@@ -54647,7 +54631,7 @@
         <v>20579.6002727273</v>
       </c>
       <c r="S210" t="n">
-        <v>90.1081772857761</v>
+        <v>0.000722651329317881</v>
       </c>
       <c r="T210" t="n">
         <v>60695620</v>
@@ -54919,13 +54903,13 @@
         <v>57.3515496701345</v>
       </c>
       <c r="L211" t="n">
-        <v>84.6203047699762</v>
+        <v>0.00506131523923703</v>
       </c>
       <c r="M211" t="n">
-        <v>34.8161949061005</v>
+        <v>0.00208242854158351</v>
       </c>
       <c r="N211" t="n">
-        <v>48.1205205538494</v>
+        <v>0.00287818774301592</v>
       </c>
       <c r="O211" t="n">
         <v>55.2863333333333</v>
@@ -54939,9 +54923,7 @@
       <c r="R211" t="n">
         <v>50.724</v>
       </c>
-      <c r="S211" t="n">
-        <v>91.4002574652437</v>
-      </c>
+      <c r="S211"/>
       <c r="T211" t="n">
         <v>181478</v>
       </c>
@@ -55210,13 +55192,13 @@
         <v>26.2138156899688</v>
       </c>
       <c r="L212" t="n">
-        <v>91.8622085672266</v>
+        <v>0.00441283097730803</v>
       </c>
       <c r="M212" t="n">
-        <v>69.4405424106961</v>
+        <v>0.00333575015678771</v>
       </c>
       <c r="N212" t="n">
-        <v>94.94613430947</v>
+        <v>0.00456097506462474</v>
       </c>
       <c r="O212" t="n">
         <v>16.067</v>
@@ -55230,9 +55212,7 @@
       <c r="R212" t="n">
         <v>14.914</v>
       </c>
-      <c r="S212" t="n">
-        <v>91.1211144748989</v>
-      </c>
+      <c r="S212"/>
       <c r="T212" t="n">
         <v>153961</v>
       </c>
@@ -55501,13 +55481,13 @@
         <v>28.345927179986</v>
       </c>
       <c r="L213" t="n">
-        <v>43.761804716102</v>
+        <v>0.234487501802785</v>
       </c>
       <c r="M213" t="n">
-        <v>36.4876804305211</v>
+        <v>0.19551079043098</v>
       </c>
       <c r="N213" t="n">
-        <v>35.7596043330842</v>
+        <v>0.19160956317772</v>
       </c>
       <c r="O213" t="n">
         <v>1226.271</v>
@@ -55522,7 +55502,7 @@
         <v>829.566</v>
       </c>
       <c r="S213" t="n">
-        <v>67.649483678567</v>
+        <v>0.0000320109073933886</v>
       </c>
       <c r="T213" t="n">
         <v>16533799</v>
@@ -55794,13 +55774,13 @@
         <v>16.1498965663947</v>
       </c>
       <c r="L214" t="n">
-        <v>77.9404646132634</v>
+        <v>0.446602279570884</v>
       </c>
       <c r="M214" t="n">
-        <v>27.4810392348412</v>
+        <v>0.157467559734926</v>
       </c>
       <c r="N214" t="n">
-        <v>64.9694087802497</v>
+        <v>0.372277560925579</v>
       </c>
       <c r="O214" t="n">
         <v>2587.581</v>
@@ -55815,7 +55795,7 @@
         <v>1878.428</v>
       </c>
       <c r="S214" t="n">
-        <v>71.8456374825782</v>
+        <v>0.0000695375279708582</v>
       </c>
       <c r="T214" t="n">
         <v>19252374</v>
@@ -56087,13 +56067,13 @@
         <v>62.265367070102</v>
       </c>
       <c r="L215" t="n">
-        <v>44.2990278025194</v>
+        <v>0.120102549197796</v>
       </c>
       <c r="M215" t="n">
-        <v>9.23328613210251</v>
+        <v>0.0250330821453175</v>
       </c>
       <c r="N215" t="n">
-        <v>23.3729886081685</v>
+        <v>0.063368332296729</v>
       </c>
       <c r="O215" t="n">
         <v>2604.402</v>
@@ -56108,7 +56088,7 @@
         <v>2399.69166666667</v>
       </c>
       <c r="S215" t="n">
-        <v>91.7822143892404</v>
+        <v>0.0000921816572563856</v>
       </c>
       <c r="T215" t="n">
         <v>8142545</v>
@@ -56380,13 +56360,13 @@
         <v>65.8783980028741</v>
       </c>
       <c r="L216" t="n">
-        <v>51.8612151824633</v>
+        <v>0.142935409364607</v>
       </c>
       <c r="M216" t="n">
-        <v>36.1072441049671</v>
+        <v>0.0995156727240833</v>
       </c>
       <c r="N216" t="n">
-        <v>33.2249522637929</v>
+        <v>0.0915717484875026</v>
       </c>
       <c r="O216" t="n">
         <v>3622.789</v>
@@ -56401,7 +56381,7 @@
         <v>2930.0295</v>
       </c>
       <c r="S216" t="n">
-        <v>87.7448842746777</v>
+        <v>0.0000995284109404041</v>
       </c>
       <c r="T216" t="n">
         <v>8447543</v>
